--- a/CleanDataExel/Biore UV Aqua Rich Watery Gel_20240922_153520.csv.xlsx
+++ b/CleanDataExel/Biore UV Aqua Rich Watery Gel_20240922_153520.csv.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G282"/>
+  <dimension ref="A1:F282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,6 @@
           <t>review_text</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>cleaned_review</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -494,12 +489,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ร้านค้าจัดส่งสินค้าได้รวดเร็วมาก การแพ็คสินค้าก็เรียบร้อยดีมีการใส่บับเบิ้ลแล้วใส่กล่องมาอีกชั้นนึง</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>ร้านค้าจัดส่งสินค้าได้รวดเร็วมากการแพ็คสินค้าก็เรียบร้อยดีมีการใส่แล้วใส่กล่องมาอีกชั้นนึง</t>
+          <t>ร้านค้าจัดส่งสินค้าได้รวดเร็วมาก การแพ็คสินค้าก็เรียบร้อยดีมีการใส่ แล้วใส่กล่องมาอีกชั้นนึง</t>
         </is>
       </c>
     </row>
@@ -527,12 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>สะใจมากกันแดดขวดนี้ปริมาณ   กดมาได้ในราคา  บาท ราคาเต็ม  บาท เบาสบายและไม่มัน เหมาะสำหรับใช้ในชีวิตประจำวัน</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>สะใจมากกันแดดขวดนี้ปริมาณกดมาได้ในราคาบาทราคาเต็มบาทเบาสบายและไม่มันเหมาะสำหรับใช้ในชีวิตประจำวัน</t>
+          <t>สะใจมากกันแดดขวดนี้ปริมาณ กดมาได้ในราคา บาท ราคาเต็ม บาท เบาสบายและไม่มัน เหมาะสำหรับใช้ในชีวิตประจำวัน</t>
         </is>
       </c>
     </row>
@@ -560,12 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>สูตรที่ยาวนาน อ่อนโยนต่อผิวแพ้ง่าย รู้สึกสดชื่นบนผิว ทิ้งความเปล่งปลั่งตามธรรมชาติและสุขภาพดี ดีมากส่งไวใช้ประจำมีส่วนลดให้ด้วยต่ะเีงามมม</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>สูตรที่ยาวนานอ่อนโยนต่อผิวแพ้ง่ายรู้สึกสดชื่นบนผิวทิ้งความเปล่งปลั่งตามธรรมชาติและสุขภาพดีดีมากส่งไวใช้ประจำมีส่วนลดให้ด้วยงาม</t>
+          <t>สูตรที่ยาวนาน อ่อนโยนต่อผิวแพ้ง่าย รู้สึกสดชื่นบนผิว ทิ้งความเปล่งปลั่งตามธรรมชาติและสุขภาพดี ดีมากส่งไวใช้ประจำมีส่วนลดให้ด้วย งามมม</t>
         </is>
       </c>
     </row>
@@ -596,11 +576,6 @@
           <t>สินค้า คุณภาพดีสมราคาดีเลย การจัดส่ง ไม่ช้ามาก การแพ็คสินค้า แพ็คมาดี บริการจากบริษัทขนส่ง พอใช้ได้บริการดี โดยรวมโอเคเลยย</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>สินค้าคุณภาพดีสมราคาดีเลยการจัดส่งไม่ช้ามากการแพ็คสินค้าแพ็คมาดีบริการจากบริษัทขนส่งพอใช้ได้บริการดีโดยรวมโอเคเลย</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -627,11 +602,6 @@
       <c r="F6" t="inlineStr">
         <is>
           <t>อ่อนโยนต่อผิวที่แพ้ง่าย ซึมเข้าสู่ผิวได้อย่างรวดเร็ว สูตรที่อยู่ได้นาน ทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติ</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>อ่อนโยนต่อผิวที่แพ้ง่ายซึมเข้าสู่ผิวได้อย่างรวดเร็วสูตรที่อยู่ได้นานทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติ</t>
         </is>
       </c>
     </row>
@@ -662,11 +632,6 @@
           <t>คุณภาพของสินค้าดีมาก ความคุ้มค่าดีมาก ความรวดเร็วในการจัดส่งดีมาก การให้บริการจากร้านค้าดีมาก การให้บริการจากบริษัทขนส่งดีมาก แพคสินค้าดี</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>คุณภาพของสินค้าดีมากความคุ้มค่าดีมากความรวดเร็วในการจัดส่งดีมากการให้บริการจากร้านค้าดีมากการให้บริการจากบริษัทขนส่งดีมากแพสินค้าดี</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -695,11 +660,6 @@
           <t>ส่งไว แพคมาอย่างดี ไม่มีเสียหาย ลองใช้ดูแล้วซึมเร็ว ไม่เหนียวเหมาะสำหรับใช้ในชีวิตประจำวัน</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>ส่งไวแพมาอย่างดีไม่มีเสียหายลองใช้ดูแล้วซึมเร็วไม่เหนียวเหมาะสำหรับใช้ในชีวิตประจำวัน</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -728,11 +688,6 @@
           <t>ทำให้ผิวชุ่มชื้น สูตรที่อยู่ได้นาน ปกป้องผิวจากมลภาวะ ซึมเข้าสู่ผิวได้อย่างรวดเร็ว</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>ทำให้ผิวชุ่มชื้นสูตรที่อยู่ได้นานปกป้องผิวจากมลภาวะซึมเข้าสู่ผิวได้อย่างรวดเร็ว</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -758,12 +713,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ใช้ประจำป้องกันแดดได้ดร เนื้อสัมผัสดีมากๆ ราคาไม่แพงได้ส่วนลดเยอะ แพ็คสินค้ามาอย่างดี</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>ใช้ประจำป้องกันแดดได้ดรเนื้อสัมผัสดีมากราคาไม่แพงได้ส่วนลดเยอะแพ็คสินค้ามาอย่างดี</t>
+          <t>ใช้ประจำป้องกันแดดได้ดร เนื้อสัมผัสดีมาก ราคาไม่แพงได้ส่วนลดเยอะ แพ็คสินค้ามาอย่างดี</t>
         </is>
       </c>
     </row>
@@ -794,11 +744,6 @@
           <t>ทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติ ปกป้องผิวจากมลภาวะ ทำให้ผิวเรียบเนียนและไม่มัน</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>ทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติปกป้องผิวจากมลภาวะทำให้ผิวเรียบเนียนและไม่มัน</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -827,11 +772,6 @@
           <t>เหมาะสำหรับใช้ในชีวิตประจำวัน ไม่ทำให้เกิดสิว ซึมเข้าสู่ผิวได้อย่างรวดเร็ว ปกป้องผิวจากมลภาวะ เบาสบายและไม่มัน ไม่ทำให้ผิวขาวและหมองคล้ำ ทำให้ผิวชุ่มชื้น</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>เหมาะสำหรับใช้ในชีวิตประจำวันไม่ทำให้เกิดสิวซึมเข้าสู่ผิวได้อย่างรวดเร็วปกป้องผิวจากมลภาวะเบาสบายและไม่มันไม่ทำให้ผิวขาวและหมองคล้ำทำให้ผิวชุ่มชื้น</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -860,11 +800,6 @@
           <t>ของแท้นะครับ เช็คเทียบกับที่ซื้อในวัตสันแล้ว หาหลายที่มากของถูกหลักสิบปลอมทั้งนั้น สั่งอะไรต้องมีสตินะครับ ส่งเร็วดีแต่สถานะการส่งไม่อัพเดท</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>ของแท้นะครับเช็คเทียบกับที่ซื้อในวัตสันแล้วหาหลายที่มากของถูกหลักสิบปลอมทั้งนั้นสั่งอะไรต้องมีสตินะครับส่งเร็วดีแต่สถานะการส่งไม่อัพเดท</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -893,11 +828,6 @@
           <t>ใช้งานดีมากค่ะ กันแดดเนื้อเจล ปาดปุ๊ปซึมปั๊ปปปปปปป</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>ใช้งานดีมากค่ะกันแดดเนื้อเจลปาดปุ๊ซึมปั๊ป</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -926,11 +856,6 @@
           <t>ป้องกันแดดสูง ไม่ทำให้ผิวขาวและหมองคล้ำ ซึมเข้าสู่ผิวได้อย่างรวดเร็ว ใช้ง่ายและผสมเข้ากับผิวได้ดี ไม่อุดตันรูขุมขน อ่อนโยนต่อผิวที่แพ้ง่าย รู้สึกสดชื่นกับผิว ป้องกันแดดสูง</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>ป้องกันแดดสูงไม่ทำให้ผิวขาวและหมองคล้ำซึมเข้าสู่ผิวได้อย่างรวดเร็วใช้ง่ายและผสมเข้ากับผิวได้ดีไม่อุดตันรูขุมขนอ่อนโยนต่อผิวที่แพ้ง่ายรู้สึกสดชื่นกับผิวป้องกันแดดสูง</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -959,11 +884,6 @@
           <t>รู้สึกสดชื่นบนผิว ไม่ทำให้เกิดสิว ทิ้งผิวสัมผัสเรียบและด้าน ซึมเข้าสู่ผิวได้อย่างรวดเร็ว อ่อนโยนต่อผิวแพ้ง่าย</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>รู้สึกสดชื่นบนผิวไม่ทำให้เกิดสิวทิ้งผิวสัมผัสเรียบและด้านซึมเข้าสู่ผิวได้อย่างรวดเร็วอ่อนโยนต่อผิวแพ้ง่าย</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -992,11 +912,6 @@
           <t>อ่อนโยนต่อผิวแพ้ง่าย ซึมเข้าสู่ผิวอย่างรวดเร็ว รู้สึกสดชื่นบนผิว รู้สึกสดชื่นบนผิว</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>อ่อนโยนต่อผิวแพ้ง่ายซึมเข้าสู่ผิวอย่างรวดเร็วรู้สึกสดชื่นบนผิวรู้สึกสดชื่นบนผิว</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1022,12 +937,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>จัดส่งรวดเร็ว แพ็คสินค้าดี ไม่มีตำหนิ พนักงานขนส่งบริการดี ซื้อมาตอนโปร  ราคาไม่แรงมาก</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>จัดส่งรวดเร็วแพ็คสินค้าดีไม่มีตำหนิพนักงานขนส่งบริการดีซื้อมาตอนโปรราคาไม่แรงมาก</t>
+          <t>จัดส่งรวดเร็ว แพ็คสินค้าดี ไม่มีตำหนิ พนักงานขนส่งบริการดี ซื้อมาตอนโปร ราคาไม่แรงมาก</t>
         </is>
       </c>
     </row>
@@ -1058,11 +968,6 @@
           <t>ได้รับสินค้าถูกต้อง ตรงตามที่สั่ง ส่งสินค้าให้รวดเร็วทันใจมากริไม่นานสินค้าดีมีคุณภาพซื้อซ้ำหลายครั้งแล้ว ราคาถูก</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>ได้รับสินค้าถูกต้องตรงตามที่สั่งส่งสินค้าให้รวดเร็วทันใจมากริไม่นานสินค้าดีมีคุณภาพซื้อซ้ำหลายครั้งแล้วราคาถูก</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1091,11 +996,6 @@
           <t>สั่งรอบสองแล้ว ใช้ดี เนื้อเจล ทาแล้วแห้งไวไม่ทำให้เหนียว หน้าไม่มัน ไม่ทำให้สิวขึ้น ช่วยกันแดดในสภาพปกติได้ดี แต่ถ้าออกไปเจอแดดจัด ต้องทาซ้ำบ่อยนิดนึง</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>สั่งรอบสองแล้วใช้ดีเนื้อเจลทาแล้วแห้งไวไม่ทำให้เหนียวหน้าไม่มันไม่ทำให้สิวขึ้นช่วยกันแดดในสภาพปกติได้ดีแต่ถ้าออกไปเจอแดดจัดต้องทาซ้ำบ่อยนิดนึง</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1121,12 +1021,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>สินค้าดี มีคุณภาพ จัดส่งสินค้าได้รวดเร็วมากกกกก แพ็คสินค้ามาดีมาก ให้เต็ม  เลยค่ะ คงต้องใช้บริการร้านนี้ประจำแล้ว สุดยอดดูดดดดดดดดด</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>สินค้าดีมีคุณภาพจัดส่งสินค้าได้รวดเร็วมากแพ็คสินค้ามาดีมากให้เต็มเลยค่ะคงต้องใช้บริการร้านนี้ประจำแล้วสุดยอดดูด</t>
+          <t>สินค้าดี มีคุณภาพ จัดส่งสินค้าได้รวดเร็วมากกกกก แพ็คสินค้ามาดีมาก ให้เต็ม เลยค่ะ คงต้องใช้บริการร้านนี้ประจำแล้ว สุดยอดดูดดดดดดดดด</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1049,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ดี  แพคมาดี ส่งมากล่องเรียบร้อยไม่บุบ ลองใช้ดูน่าตะดีเหมือนสูตรเอสเซ้น ราคาตอนโปรถูก จัดส่งไง</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>ดีแพมาดีส่งมากล่องเรียบร้อยไม่บุบลองใช้ดูน่าตะดีเหมือนสูตรเอสราคาตอนโปรถูกจัดส่งไง</t>
+          <t>ดี แพคมาดี ส่งมากล่องเรียบร้อยไม่บุบ ลองใช้ดูน่าตะดีเหมือนสูตรเอส ราคาตอนโปรถูก จัดส่งไง</t>
         </is>
       </c>
     </row>
@@ -1190,11 +1080,6 @@
           <t>สูตรที่อยู่ได้นาน เบาสบายและไม่มัน ซึมเข้าสู่ผิวได้อย่างรวดเร็ว ไม่ทำให้ผิวขาวและหมองคล้ำ ทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติ ทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติ ไม่ทำให้ผิวขาวและหมองคล้ำ ไม่ทำให้ผิวขาวและหมองคล้ำ ไม่ทำให้ผิวขาวและหมองคล้ำ</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>สูตรที่อยู่ได้นานเบาสบายและไม่มันซึมเข้าสู่ผิวได้อย่างรวดเร็วไม่ทำให้ผิวขาวและหมองคล้ำทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติไม่ทำให้ผิวขาวและหมองคล้ำไม่ทำให้ผิวขาวและหมองคล้ำไม่ทำให้ผิวขาวและหมองคล้ำ</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1220,12 +1105,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ร้านแพ็กของมาดีมาก เราใช้ยี่ห้อนี้ สูตรนี้หมดไปหลายขวดแล้ว ชอบมาก ผิวเข้มก็ใช้รอดนะ ทาแล้วรอมันเซตตัวนาที แล้วค่อยลงรองพื้น มันจะไม่เป็นคราบเลย</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>ร้านของมาดีมากเราใช้ยี่ห้อนี้สูตรนี้หมดไปหลายขวดแล้วชอบมากผิวเข้มก็ใช้รอดนะทาแล้วรอมันเซตตัวนาทีแล้วค่อยลงรองพื้นมันจะไม่เป็นคราบเลย</t>
+          <t>ร้าน ของมาดีมาก เราใช้ยี่ห้อนี้ สูตรนี้หมดไปหลายขวดแล้ว ชอบมาก ผิวเข้มก็ใช้รอดนะ ทาแล้วรอมันเซตตัวนาที แล้วค่อยลงรองพื้น มันจะไม่เป็นคราบเลย</t>
         </is>
       </c>
     </row>
@@ -1256,11 +1136,6 @@
           <t>ทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติ ไม่ทำให้ผิวขาวและหมองคล้ำ เหมาะสำหรับใช้ในชีวิตประจำวัน</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>ทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติไม่ทำให้ผิวขาวและหมองคล้ำเหมาะสำหรับใช้ในชีวิตประจำวัน</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1289,11 +1164,6 @@
           <t>ทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติ ทำให้ผิวชุ่มชื้น เบาสบายและไม่มัน ไม่ทำให้เกิดสิว เหมาะสำหรับใช้ในชีวิตประจำวัน สูตรที่อยู่ได้นาน รู้สึกสดชื่นกับผิว ไม่อุดตันรูขุมขน</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>ทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติทำให้ผิวชุ่มชื้นเบาสบายและไม่มันไม่ทำให้เกิดสิวเหมาะสำหรับใช้ในชีวิตประจำวันสูตรที่อยู่ได้นานรู้สึกสดชื่นกับผิวไม่อุดตันรูขุมขน</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1322,11 +1192,6 @@
           <t>ป้องกันแดดสูง ทำให้ผิวเรียบเนียนและไม่มัน เหมาะสำหรับใช้ในชีวิตประจำวัน ใช้ง่ายและผสมเข้ากับผิวได้ดี</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>ป้องกันแดดสูงทำให้ผิวเรียบเนียนและไม่มันเหมาะสำหรับใช้ในชีวิตประจำวันใช้ง่ายและผสมเข้ากับผิวได้ดี</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1355,11 +1220,6 @@
           <t>ส่งเร็ว ยังไม่ได้ลองใช้ ราคาดี</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>ส่งเร็วยังไม่ได้ลองใช้ราคาดี</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1388,11 +1248,6 @@
           <t>สูตรที่อยู่ได้นาน ทำให้ผิวชุ่มชื้น เหมาะสำหรับใช้ในชีวิตประจำวัน ทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติ</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>สูตรที่อยู่ได้นานทำให้ผิวชุ่มชื้นเหมาะสำหรับใช้ในชีวิตประจำวันทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติ</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1421,11 +1276,6 @@
           <t>ทางร้านจัดส่งสินค้าเร็ว ได้รับสินค้าตรงตามที่สั่ง ซื้อวันแคมเปญได้ส่วนลดเยอะมาก เพิ่งผลิต เก็บได้นานๆเลยค่ะ</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>ทางร้านจัดส่งสินค้าเร็วได้รับสินค้าตรงตามที่สั่งซื้อวันแคมเปญได้ส่วนลดเยอะมากเพิ่งผลิตเก็บได้นานๆเลยค่ะ</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1451,11 +1301,6 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ดีมากๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆๆ</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
           <t>ดีมาก</t>
         </is>
       </c>
@@ -1487,11 +1332,6 @@
           <t>สูตรที่อยู่ได้นาน ปกป้องผิวจากมลภาวะ อ่อนโยนต่อผิวที่แพ้ง่าย ไม่อุดตันรูขุมขน ทำให้ผิวเรียบเนียนและไม่มัน</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>สูตรที่อยู่ได้นานปกป้องผิวจากมลภาวะอ่อนโยนต่อผิวที่แพ้ง่ายไม่อุดตันรูขุมขนทำให้ผิวเรียบเนียนและไม่มัน</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1520,11 +1360,6 @@
           <t>สินค้าดีตรงปกน่าใช้</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>สินค้าดีตรงปกน่าใช้</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1550,12 +1385,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>คุณภาพดี  เนื้อสัมผัสบางเบา  ประสิทธิภาพดี เป็นกันแดดที่ราคาดีคุ้มค่ามากๆ ซื้อหลายครั้งแล้ว ใช้ดีซึมไวไม่หนักหน้า ไม่ทำให้หน้าเยิ้ม</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>คุณภาพดีเนื้อสัมผัสบางเบาประสิทธิภาพดีเป็นกันแดดที่ราคาดีคุ้มค่ามากซื้อหลายครั้งแล้วใช้ดีซึมไวไม่หนักหน้าไม่ทำให้หน้าเยิ้ม</t>
+          <t>คุณภาพดี เนื้อสัมผัสบางเบา ประสิทธิภาพดี เป็นกันแดดที่ราคาดีคุ้มค่ามาก ซื้อหลายครั้งแล้ว ใช้ดีซึมไวไม่หนักหน้า ไม่ทำให้หน้าเยิ้ม</t>
         </is>
       </c>
     </row>
@@ -1586,11 +1416,6 @@
           <t>ซื้อแบบซองมาลองใช้ดีไม่ได้แพ้ก็เลยซื้อเป็นขวดใหญ่ใช้ได้นานเนื้อรู้สึกชอบแบบขวดมากกว่าเพราะมันเขย่าได้ แต่สภาพกล่องถูกเจาะรู้เพื่อดูของข้างในว่าเป็นอะไร</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>ซื้อแบบซองมาลองใช้ดีไม่ได้แพ้ก็เลยซื้อเป็นขวดใหญ่ใช้ได้นานเนื้อรู้สึกชอบแบบขวดมากกว่าเพราะมันเขย่าได้แต่สภาพกล่องถูกเจาะรู้เพื่อดูของข้างในว่าเป็นอะไร</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1619,11 +1444,6 @@
           <t>ปกติใช้อะควาริชของบิโอเรอยู่แล้ว ถูกและดี ไม่หนักหน้าค่ะ ได้ตอนลดราคาด้วยคุ้มค่ามาก ขอบคุณสำหรับของแถมด้วยนะคะ หมดแล้วสั่งใหม่แน่นอน</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>ปกติใช้อะวาริชของบิโอเรอยู่แล้วถูกและดีไม่หนักหน้าค่ะได้ตอนลดราคาด้วยคุ้มค่ามากขอบคุณสำหรับของแถมด้วยนะคะหมดแล้วสั่งใหม่แน่นอน</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1649,12 +1469,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ั  ชอบมาก ถูกมาก ดีมาก คุ้มค่า คุ้มราคาสุดๆ</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>ชอบมากถูกมากดีมากคุ้มค่าคุ้มราคาสุด</t>
+          <t>ชอบมาก ถูกมาก ดีมาก คุ้มค่า คุ้มราคาสุด</t>
         </is>
       </c>
     </row>
@@ -1685,11 +1500,6 @@
           <t>ได้รับสินค้าเรียบร้อยแล้วค่ะ แพ็คสินค้าดี จัดส่งไว ราคาไม่แพงมาก</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>ได้รับสินค้าเรียบร้อยแล้วค่ะแพ็คสินค้าดีจัดส่งไวราคาไม่แพงมาก</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1715,12 +1525,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ร้านส่งไวมากกกกก   ให้การปกป้องจากแสงแดดสูง ทำให้ผิวรู้สึกชุ่มชื้น รู้สึกสดชื่นบนผิว อ่อนโยนต่อผิวแพ้ง่าย</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>ร้านส่งไวมากให้การปกป้องจากแสงแดดสูงทำให้ผิวรู้สึกชุ่มชื้นรู้สึกสดชื่นบนผิวอ่อนโยนต่อผิวแพ้ง่าย</t>
+          <t>ร้านส่งไวมากกกกก ให้การปกป้องจากแสงแดดสูง ทำให้ผิวรู้สึกชุ่มชื้น รู้สึกสดชื่นบนผิว อ่อนโยนต่อผิวแพ้ง่าย</t>
         </is>
       </c>
     </row>
@@ -1748,12 +1553,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>กันน้ำ  ดี  ความเข้ากันได้ของผิว  ดี  ระดับ   ดีง่ายต่อการทาและผสม ให้การปกป้องจากแสงแดดสูง ไม่ทิ้งคราบขาว สูตรที่ยาวนาน น้ำหนักเบาและไม่มันเยิ้ม</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>กันน้ำดีความเข้ากันได้ของผิวดีระดับดีง่ายต่อการทาและผสมให้การปกป้องจากแสงแดดสูงไม่ทิ้งคราบขาวสูตรที่ยาวนานน้ำหนักเบาและไม่มันเยิ้ม</t>
+          <t>กันน้ำ ดี ความเข้ากันได้ของผิว ดี ระดับ ดีง่ายต่อการทาและผสม ให้การปกป้องจากแสงแดดสูง ไม่ทิ้งคราบขาว สูตรที่ยาวนาน น้ำหนักเบาและไม่มันเยิ้ม</t>
         </is>
       </c>
     </row>
@@ -1784,11 +1584,6 @@
           <t>รู้สึกสดชื่นบนผิว ง่ายต่อการทาและผสม ทำให้ผิวรู้สึกชุ่มชื้น ทิ้งผิวสัมผัสเรียบและด้าน ไม่ทิ้งคราบขาว สูตรที่ยาวนาน</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>รู้สึกสดชื่นบนผิวง่ายต่อการทาและผสมทำให้ผิวรู้สึกชุ่มชื้นทิ้งผิวสัมผัสเรียบและด้านไม่ทิ้งคราบขาวสูตรที่ยาวนาน</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1817,11 +1612,6 @@
           <t>เลิศ มากกว่านี้อีกแล้วครับขอบคุณครับผมไม่ได้มีการจัดการเรียนรู้ที่จะทำให้เกิดความรู้สึกแล้วพักไว้ให้ดีที่สุดในโลกนี้มีแต่คนที่มีความสุขมากที่สุดในโลกนี้มีแต่คนที่</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>เลิศมากกว่านี้อีกแล้วครับขอบคุณครับผมไม่ได้มีการจัดการเรียนรู้ที่จะทำให้เกิดความรู้สึกแล้วพักไว้ให้ดีที่สุดในโลกนี้มีแต่คนที่มีความสุขมากที่สุดในโลกนี้มีแต่คนที่</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1847,12 +1637,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>กันน้ำ  ง่ายต่อการทาและผสม ซึมเข้าสู่ผิวอย่างรวดเร็ว เหมาะสำหรับการใช้งานทุกวัน น้ำหนักเบาและไม่มันเยิ้ม</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>กันน้ำง่ายต่อการทาและผสมซึมเข้าสู่ผิวอย่างรวดเร็วเหมาะสำหรับการใช้งานทุกวันน้ำหนักเบาและไม่มันเยิ้ม</t>
+          <t>กันน้ำ ง่ายต่อการทาและผสม ซึมเข้าสู่ผิวอย่างรวดเร็ว เหมาะสำหรับการใช้งานทุกวัน น้ำหนักเบาและไม่มันเยิ้ม</t>
         </is>
       </c>
     </row>
@@ -1883,11 +1668,6 @@
           <t>ทำให้ผิวรู้สึกชุ่มชื้น ทิ้งผิวสัมผัสเรียบและด้าน เหมาะสำหรับการใช้งานทุกวัน ทำให้ผิวรู้สึกชุ่มชื้น ทำให้ผิวรู้สึกชุ่มชื้น เหมาะสำหรับการใช้งานทุกวัน ป้องกันมลพิษ</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>ทำให้ผิวรู้สึกชุ่มชื้นทิ้งผิวสัมผัสเรียบและด้านเหมาะสำหรับการใช้งานทุกวันทำให้ผิวรู้สึกชุ่มชื้นทำให้ผิวรู้สึกชุ่มชื้นเหมาะสำหรับการใช้งานทุกวันป้องกันมลพิษ</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1916,11 +1696,6 @@
           <t>ง่ายต่อการทาและผสม ซึมเข้าสู่ผิวอย่างรวดเร็ว ให้การปกป้องจากแสงแดดสูง น้ำหนักเบาและไม่มันเยิ้ม ทิ้งความเปล่งปลั่งตามธรรมชาติและสุขภาพดี</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>ง่ายต่อการทาและผสมซึมเข้าสู่ผิวอย่างรวดเร็วให้การปกป้องจากแสงแดดสูงน้ำหนักเบาและไม่มันเยิ้มทิ้งความเปล่งปลั่งตามธรรมชาติและสุขภาพดี</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1949,11 +1724,6 @@
           <t>อ่อนโยนต่อผิวแพ้ง่าย ทำให้ผิวรู้สึกชุ่มชื้น ไม่ทิ้งคราบขาว เหมาะสำหรับการใช้งานทุกวัน ไม่ทำให้เกิดสิว ป้องกันมลพิษ</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>อ่อนโยนต่อผิวแพ้ง่ายทำให้ผิวรู้สึกชุ่มชื้นไม่ทิ้งคราบขาวเหมาะสำหรับการใช้งานทุกวันไม่ทำให้เกิดสิวป้องกันมลพิษ</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1979,12 +1749,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ส่งขิงไว แพ็กของดี ส่วนตัวใช้มาหลายปี หมดไปหลายขวดมากๆ เราว่าคุณภาพโอเค ฟิลเตอร์กันแดดที่ใส่มาโอเคเลย ราคาถูกนะถ้าเทียบกับปริมาณ ส่วนตัวใช้แล้วโอเคกับผลลัพธ์มากค่ะ</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>ส่งขิงไวของดีส่วนตัวใช้มาหลายปีหมดไปหลายขวดมากเราว่าคุณภาพโอเคฟิลเตอร์กันแดดที่ใส่มาโอเคเลยราคาถูกนะถ้าเทียบกับปริมาณส่วนตัวใช้แล้วโอเคกับผลลัพธ์มากค่ะ</t>
+          <t>ส่งขิงไว ของดี ส่วนตัวใช้มาหลายปี หมดไปหลายขวดมาก เราว่าคุณภาพโอเค ฟิลเตอร์กันแดดที่ใส่มาโอเคเลย ราคาถูกนะถ้าเทียบกับปริมาณ ส่วนตัวใช้แล้วโอเคกับผลลัพธ์มากค่ะ</t>
         </is>
       </c>
     </row>
@@ -2015,11 +1780,6 @@
           <t>ทิ้งความเปล่งปลั่งตามธรรมชาติและสุขภาพดี อ่อนโยนต่อผิวแพ้ง่าย รู้สึกสดชื่นบนผิว ป้องกันมลพิษ ให้การปกป้องจากแสงแดดสูง</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>ทิ้งความเปล่งปลั่งตามธรรมชาติและสุขภาพดีอ่อนโยนต่อผิวแพ้ง่ายรู้สึกสดชื่นบนผิวป้องกันมลพิษให้การปกป้องจากแสงแดดสูง</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2048,11 +1808,6 @@
           <t>น้ำหนักเบาและไม่มันเยิ้ม เหมาะสำหรับการใช้งานทุกวัน ป้องกันมลพิษ ไม่ทิ้งคราบขาว ให้การปกป้องจากแสงแดดสูง</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>น้ำหนักเบาและไม่มันเยิ้มเหมาะสำหรับการใช้งานทุกวันป้องกันมลพิษไม่ทิ้งคราบขาวให้การปกป้องจากแสงแดดสูง</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2078,12 +1833,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>แพ็คมาดีๆๆๆๆๆๆ ของไม่เสียหาย    ระดับ   ความเข้ากันได้ของผิวซิมไวๆๆๆๆๆๆๆ ใช้มาตลอด  กันน้ำระดับนึงนะคะ</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>แพ็คมาดีของไม่เสียหายระดับความเข้ากันได้ของผิวซิมไวใช้มาตลอดกันน้ำระดับนึงนะคะ</t>
+          <t>แพ็คมาดี ของไม่เสียหาย ระดับ ความเข้ากันได้ของผิวซิมไว ใช้มาตลอด กันน้ำระดับนึงนะคะ</t>
         </is>
       </c>
     </row>
@@ -2111,12 +1861,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>รุ่นยังไม่เคยใช้ เลยสั่งมาลองทั้งแบบ สินค้ามีกลิ่นหอมอ่อนๆ ตัวซ้ายสุดเนื้อบางเบา ตัวกลางเหมือนน้ำนม ตัวขวาเหมือนครีมแต่ไม่ข้นหนักกว่าตัวแรกหน่อย ทั้งแบบ เกลี่ยง่าย ซึมไว ไม่มัน ทดสอบบนหลังมือ</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>รุ่นยังไม่เคยใช้เลยสั่งมาลองทั้งแบบสินค้ามีกลิ่นหอมอ่อนตัวซ้ายสุดเนื้อบางเบาตัวกลางเหมือนน้ำนมตัวขวาเหมือนครีมแต่ไม่ข้นหนักกว่าตัวแรกหน่อยทั้งแบบเกลี่ยง่ายซึมไวไม่มันทดสอบบนหลังมือ</t>
+          <t>รุ่นยังไม่เคยใช้ เลยสั่งมาลองทั้งแบบ สินค้ามีกลิ่นหอมอ่อน ตัวซ้ายสุดเนื้อบางเบา ตัวกลางเหมือนน้ำนม ตัวขวาเหมือนครีมแต่ไม่ข้นหนักกว่าตัวแรกหน่อย ทั้งแบบ เกลี่ยง่าย ซึมไว ไม่มัน ทดสอบบนหลังมือ</t>
         </is>
       </c>
     </row>
@@ -2147,11 +1892,6 @@
           <t>สูตรที่ยาวนาน ไม่ทำให้เกิดสิว ให้การปกป้องจากแสงแดดสูง ทิ้งผิวสัมผัสเรียบและด้าน เหมาะสำหรับการใช้งานทุกวัน</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>สูตรที่ยาวนานไม่ทำให้เกิดสิวให้การปกป้องจากแสงแดดสูงทิ้งผิวสัมผัสเรียบและด้านเหมาะสำหรับการใช้งานทุกวัน</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2180,11 +1920,6 @@
           <t>ง่ายต่อการทาและผสม เหมาะสำหรับการใช้งานทุกวัน ทำให้ผิวรู้สึกชุ่มชื้น ทิ้งความเปล่งปลั่งตามธรรมชาติและสุขภาพดี</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>ง่ายต่อการทาและผสมเหมาะสำหรับการใช้งานทุกวันทำให้ผิวรู้สึกชุ่มชื้นทิ้งความเปล่งปลั่งตามธรรมชาติและสุขภาพดี</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2213,11 +1948,6 @@
           <t>ได้รับสินค้าเรียบร้อยแล้ว สินค้าปกติดี ไม่มีอะไรเสียหาย ของตรงปก ได้รับสินค้าเรียบร้อยแล้ว ได้รับสินค้าเรียบร้อยแล้ว ได้รับสินค้าเรียบร้อยแล้ว</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>ได้รับสินค้าเรียบร้อยแล้วสินค้าปกติดีไม่มีอะไรเสียหายของตรงปกได้รับสินค้าเรียบร้อยแล้วได้รับสินค้าเรียบร้อยแล้วได้รับสินค้าเรียบร้อยแล้ว</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2246,11 +1976,6 @@
           <t>ทิ้งผิวสัมผัสเรียบและด้าน เหมาะสำหรับการใช้งานทุกวัน ทิ้งผิวสัมผัสเรียบและด้าน ให้การปกป้องจากแสงแดดสูง ให้การปกป้องจากแสงแดดสูง ทำให้ผิวรู้สึกชุ่มชื้น ให้การปกป้องจากแสงแดดสูง ทำให้ผิวรู้สึกชุ่มชื้น ทำให้ผิวรู้สึกชุ่มชื้น</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>ทิ้งผิวสัมผัสเรียบและด้านเหมาะสำหรับการใช้งานทุกวันทิ้งผิวสัมผัสเรียบและด้านให้การปกป้องจากแสงแดดสูงให้การปกป้องจากแสงแดดสูงทำให้ผิวรู้สึกชุ่มชื้นให้การปกป้องจากแสงแดดสูงทำให้ผิวรู้สึกชุ่มชื้นทำให้ผิวรู้สึกชุ่มชื้น</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2279,11 +2004,6 @@
           <t>ไม่ทิ้งคราบขาว รู้สึกสดชื่นบนผิว อ่อนโยนต่อผิวแพ้ง่าย น้ำหนักเบาและไม่มันเยิ้ม ไม่อุดตันรูขุมขน ซึมเข้าสู่ผิวได้อย่างรวดเร็ว</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>ไม่ทิ้งคราบขาวรู้สึกสดชื่นบนผิวอ่อนโยนต่อผิวแพ้ง่ายน้ำหนักเบาและไม่มันเยิ้มไม่อุดตันรูขุมขนซึมเข้าสู่ผิวได้อย่างรวดเร็ว</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2309,12 +2029,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ส่งไวดี ราคาย่อมเยาว์ แบนด์ชั้นนำไว้ใจได้ หอมอ่อน ๆ ชอบๆ ส่งไวดี ราคาย่อมเยาว์ แบนด์ชั้นนำไว้ใจได้ หอมอ่อน ๆ ชอบๆ</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>ส่งไวดีราคาย่อมเยาว์แบนด์ชั้นนำไว้ใจได้หอมอ่อนชอบส่งไวดีราคาย่อมเยาว์แบนด์ชั้นนำไว้ใจได้หอมอ่อนชอบ</t>
+          <t>ส่งไวดี ราคาย่อมเยาว์ แบนด์ชั้นนำไว้ใจได้ หอมอ่อน ชอบ ส่งไวดี ราคาย่อมเยาว์ แบนด์ชั้นนำไว้ใจได้ หอมอ่อน ชอบ</t>
         </is>
       </c>
     </row>
@@ -2345,11 +2060,6 @@
           <t>ป้องกันแดดสูง ทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติ ใช้ง่ายและผสมเข้ากับผิวได้ดี ไม่ทำให้ผิวขาวและหมองคล้ำ</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>ป้องกันแดดสูงทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติใช้ง่ายและผสมเข้ากับผิวได้ดีไม่ทำให้ผิวขาวและหมองคล้ำ</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2378,11 +2088,6 @@
           <t>ปกป้องผิวจากมลภาวะ ใช้ง่ายและผสมเข้ากับผิวได้ดี ทำให้ผิวชุ่มชื้น ซึมเข้าสู่ผิวได้อย่างรวดเร็ว ไม่ทำให้เกิดสิว</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>ปกป้องผิวจากมลภาวะใช้ง่ายและผสมเข้ากับผิวได้ดีทำให้ผิวชุ่มชื้นซึมเข้าสู่ผิวได้อย่างรวดเร็วไม่ทำให้เกิดสิว</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2411,11 +2116,6 @@
           <t>ป้องกันแดดสูง ไม่ทำให้เกิดสิว ป้องกันแดดสูง เบาสบายและไม่มัน ทำให้ผิวชุ่มชื้น อ่อนโยนต่อผิวที่แพ้ง่าย ใช้ง่ายและผสมเข้ากับผิวได้ดี</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>ป้องกันแดดสูงไม่ทำให้เกิดสิวป้องกันแดดสูงเบาสบายและไม่มันทำให้ผิวชุ่มชื้นอ่อนโยนต่อผิวที่แพ้ง่ายใช้ง่ายและผสมเข้ากับผิวได้ดี</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2444,11 +2144,6 @@
           <t>ทำให้ผิวเรียบเนียนและไม่มัน อ่อนโยนต่อผิวที่แพ้ง่าย รู้สึกสดชื่นกับผิว ทำให้ผิวชุ่มชื้น เบาสบายและไม่มัน ไม่ทำให้ผิวขาวและหมองคล้ำ</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>ทำให้ผิวเรียบเนียนและไม่มันอ่อนโยนต่อผิวที่แพ้ง่ายรู้สึกสดชื่นกับผิวทำให้ผิวชุ่มชื้นเบาสบายและไม่มันไม่ทำให้ผิวขาวและหมองคล้ำ</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2477,11 +2172,6 @@
           <t>ซึมเข้าสู่ผิวได้อย่างรวดเร็ว เหมาะสำหรับใช้ในชีวิตประจำวัน สูตรที่อยู่ได้นาน อ่อนโยนต่อผิวที่แพ้ง่าย ปกป้องผิวจากมลภาวะ</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>ซึมเข้าสู่ผิวได้อย่างรวดเร็วเหมาะสำหรับใช้ในชีวิตประจำวันสูตรที่อยู่ได้นานอ่อนโยนต่อผิวที่แพ้ง่ายปกป้องผิวจากมลภาวะ</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2510,11 +2200,6 @@
           <t>ทำให้ผิวเรียบเนียนและไม่มัน ซึมเข้าสู่ผิวได้อย่างรวดเร็ว ไม่อุดตันรูขุมขน ทำให้ผิวชุ่มชื้น รู้สึกสดชื่นกับผิว</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>ทำให้ผิวเรียบเนียนและไม่มันซึมเข้าสู่ผิวได้อย่างรวดเร็วไม่อุดตันรูขุมขนทำให้ผิวชุ่มชื้นรู้สึกสดชื่นกับผิว</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2543,11 +2228,6 @@
           <t>ไม่อุดตันรูขุมขน ทำให้ผิวชุ่มชื้น ทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติ ซึมเข้าสู่ผิวได้อย่างรวดเร็ว</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>ไม่อุดตันรูขุมขนทำให้ผิวชุ่มชื้นทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติซึมเข้าสู่ผิวได้อย่างรวดเร็ว</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2576,11 +2256,6 @@
           <t>ทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติ ปกป้องผิวจากมลภาวะ เหมาะสำหรับใช้ในชีวิตประจำวัน รู้สึกสดชื่นกับผิว</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>ทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติปกป้องผิวจากมลภาวะเหมาะสำหรับใช้ในชีวิตประจำวันรู้สึกสดชื่นกับผิว</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2606,12 +2281,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ส่งค่อนข้างเร็ว กล่องบุบแต่ข้างในปลอดภัยดีค่ะ ราคาย่อมเยา พนักงานโทรแจ้งก่อนส่ง เกลี่ยง่าย ไม่เหนียว ได้มา ฿</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>ส่งค่อนข้างเร็วกล่องบุบแต่ข้างในปลอดภัยดีค่ะราคาย่อมเยาพนักงานโทรแจ้งก่อนส่งเกลี่ยง่ายไม่เหนียวได้มา</t>
+          <t>ส่งค่อนข้างเร็ว กล่องบุบแต่ข้างในปลอดภัยดีค่ะ ราคาย่อมเยา พนักงานโทรแจ้งก่อนส่ง เกลี่ยง่าย ไม่เหนียว ได้มา</t>
         </is>
       </c>
     </row>
@@ -2642,11 +2312,6 @@
           <t>ไม่ทำให้ผิวขาวและหมองคล้ำ ทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติ สูตรที่อยู่ได้นาน ซึมเข้าสู่ผิวได้อย่างรวดเร็ว</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>ไม่ทำให้ผิวขาวและหมองคล้ำทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติสูตรที่อยู่ได้นานซึมเข้าสู่ผิวได้อย่างรวดเร็ว</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2672,12 +2337,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>คุณภาพยังไม่รู้เพราะยังไม่ได้ลองใช้ เคยใช้แต่รุ่นที่เป็น   หวังว่าจะดีเหมือนกัน แต่จัดส่งเร็ว แพ็คใส่กล่องล้อม  มาอย่างดี</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>คุณภาพยังไม่รู้เพราะยังไม่ได้ลองใช้เคยใช้แต่รุ่นที่เป็นหวังว่าจะดีเหมือนกันแต่จัดส่งเร็วแพ็คใส่กล่องล้อมมาอย่างดี</t>
+          <t>คุณภาพยังไม่รู้เพราะยังไม่ได้ลองใช้ เคยใช้แต่รุ่นที่เป็น หวังว่าจะดีเหมือนกัน แต่จัดส่งเร็ว แพ็คใส่กล่องล้อม มาอย่างดี</t>
         </is>
       </c>
     </row>
@@ -2708,11 +2368,6 @@
           <t>รู้สึกสดชื่นกับผิว ทำให้ผิวเรียบเนียนและไม่มัน สูตรที่อยู่ได้นาน ไม่ทำให้ผิวขาวและหมองคล้ำ เบาสบายและไม่มัน</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>รู้สึกสดชื่นกับผิวทำให้ผิวเรียบเนียนและไม่มันสูตรที่อยู่ได้นานไม่ทำให้ผิวขาวและหมองคล้ำเบาสบายและไม่มัน</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2738,12 +2393,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>บิโอเร ยูวี อะควา ริช วอเตอร์รี่ เจล มล          เนื้อเจล จัดส่งรวดเร็วค่ะ</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>บิโอเรยูวีอะวาริวอเตอร์รี่เจลมลเนื้อเจลจัดส่งรวดเร็วค่ะ</t>
+          <t>บิโอเร ยูวี อะควา ริช วอเตอร์รี่ เจล มล เนื้อเจล จัดส่งรวดเร็วค่ะ</t>
         </is>
       </c>
     </row>
@@ -2774,11 +2424,6 @@
           <t>ซึมเข้าสู่ผิวได้อย่างรวดเร็ว ไม่ทำให้เกิดสิว อ่อนโยนต่อผิวที่แพ้ง่าย เหมาะสำหรับใช้ในชีวิตประจำวัน</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>ซึมเข้าสู่ผิวได้อย่างรวดเร็วไม่ทำให้เกิดสิวอ่อนโยนต่อผิวที่แพ้ง่ายเหมาะสำหรับใช้ในชีวิตประจำวัน</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2807,11 +2452,6 @@
           <t>เหมาะสำหรับใช้ในชีวิตประจำวัน ทำให้ผิวชุ่มชื้น ทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติ อ่อนโยนต่อผิวที่แพ้ง่าย</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>เหมาะสำหรับใช้ในชีวิตประจำวันทำให้ผิวชุ่มชื้นทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติอ่อนโยนต่อผิวที่แพ้ง่าย</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2840,11 +2480,6 @@
           <t>ทำให้ผิวชุ่มชื้น ซึมเข้าสู่ผิวได้อย่างรวดเร็ว ทำให้ผิวเรียบเนียนและไม่มัน ไม่ทำให้ผิวขาวและหมองคล้ำ รู้สึกสดชื่นกับผิว ไม่ทำให้เกิดสิว</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>ทำให้ผิวชุ่มชื้นซึมเข้าสู่ผิวได้อย่างรวดเร็วทำให้ผิวเรียบเนียนและไม่มันไม่ทำให้ผิวขาวและหมองคล้ำรู้สึกสดชื่นกับผิวไม่ทำให้เกิดสิว</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2870,12 +2505,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ใช้กันแดดของยี่ห้อนี้เพราะตามมาจากพี่อิ้งสรุปชอบมากกกกกกถึงจะแสบตาแต่ชอบตลอดใช้แต่แบบซองเลยมาซื้อแบบหลอดใหญ่กดมาได้  คุ้มสุดๆ</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>ใช้กันแดดของยี่ห้อนี้เพราะตามมาจากพี่สรุปชอบมากถึงจะแสบตาแต่ชอบตลอดใช้แต่แบบซองเลยมาซื้อแบบหลอดใหญ่กดมาได้คุ้มสุด</t>
+          <t>ใช้กันแดดของยี่ห้อนี้เพราะตามมาจากพี่ สรุปชอบมากกกกกกถึงจะแสบตาแต่ชอบตลอดใช้แต่แบบซองเลยมาซื้อแบบหลอดใหญ่กดมาได้ คุ้มสุด</t>
         </is>
       </c>
     </row>
@@ -2906,11 +2536,6 @@
           <t>สูตรที่อยู่ได้นาน ทำให้ผิวเรียบเนียนและไม่มัน ทำให้ผิวเรียบเนียนและไม่มัน ปกป้องผิวจากมลภาวะ เบาสบายและไม่มัน ป้องกันแดดสูง</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>สูตรที่อยู่ได้นานทำให้ผิวเรียบเนียนและไม่มันทำให้ผิวเรียบเนียนและไม่มันปกป้องผิวจากมลภาวะเบาสบายและไม่มันป้องกันแดดสูง</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2936,12 +2561,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ได้รับสินค้าแล้ว สินค้าถูกต้องครบตามที่สั่ง สามารถใช้งานได้ ไม่มีปัญหา จัดส่งตรงตามเวลา  คอมเม้นเพิ่มเติม  ตกอันละไม่ถึง ดีคาะ</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>ได้รับสินค้าแล้วสินค้าถูกต้องครบตามที่สั่งสามารถใช้งานได้ไม่มีปัญหาจัดส่งตรงตามเวลาคอมเม้นเพิ่มเติมตกอันละไม่ถึงดีคา</t>
+          <t>ได้รับสินค้าแล้ว สินค้าถูกต้องครบตามที่สั่ง สามารถใช้งานได้ ไม่มีปัญหา จัดส่งตรงตามเวลา คอมเม้นเพิ่มเติม ตกอันละไม่ถึง ดีคา</t>
         </is>
       </c>
     </row>
@@ -2972,11 +2592,6 @@
           <t>ทำให้ผิวชุ่มชื้น ป้องกันแดดสูง เหมาะสำหรับใช้ในชีวิตประจำวัน ซึมเข้าสู่ผิวได้อย่างรวดเร็ว ทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติ ไม่ทำให้ผิวขาวและหมองคล้ำ ปกป้องผิวจากมลภาวะ ไม่อุดตันรูขุมขน</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>ทำให้ผิวชุ่มชื้นป้องกันแดดสูงเหมาะสำหรับใช้ในชีวิตประจำวันซึมเข้าสู่ผิวได้อย่างรวดเร็วทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติไม่ทำให้ผิวขาวและหมองคล้ำปกป้องผิวจากมลภาวะไม่อุดตันรูขุมขน</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3002,12 +2617,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>จัดส่งเร็วดีมาก สั่ง ได้วันที่  แต่พนักงานขนส่งมาส่งสี่โมงกว่า จะดลับบ้านอยูาแล้ว ยังไม่ได้เริ่มลองใช้นะ เห็นอินฟลูท่านนึงทดลองเรื่องกันน้ำ บอกว่าเอาอยู่ เราเหงืีอเยอะเลยรีบสอย จากการทดลองส่วนตัว พบว่าเกลี่ยง่ายดี ซึมเร็ว</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>จัดส่งเร็วดีมากสั่งได้วันที่แต่พนักงานขนส่งมาส่งสี่โมงกว่าจะลับบ้านอยูแล้วยังไม่ได้เริ่มลองใช้นะเห็นอินท่านนึงทดลองเรื่องกันน้ำบอกว่าเอาอยู่เราเหเยอะเลยรีบสอยจากการทดลองส่วนตัวพบว่าเกลี่ยง่ายดีซึมเร็ว</t>
+          <t>จัดส่งเร็วดีมาก สั่ง ได้วันที่ แต่พนักงานขนส่งมาส่งสี่โมงกว่า จะดลับบ้านอยู แล้ว ยังไม่ได้เริ่มลองใช้นะ เห็นอิน ท่านนึงทดลองเรื่องกันน้ำ บอกว่าเอาอยู่ เราเห เยอะเลยรีบสอย จากการทดลองส่วนตัว พบว่าเกลี่ยง่ายดี ซึมเร็ว</t>
         </is>
       </c>
     </row>
@@ -3038,11 +2648,6 @@
           <t>ไม่อุดตันรูขุมขน รู้สึกสดชื่นกับผิว ปกป้องผิวจากมลภาวะ ทำให้ผิวชุ่มชื้น สูตรที่อยู่ได้นาน ไม่ทำให้เกิดสิว</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>ไม่อุดตันรูขุมขนรู้สึกสดชื่นกับผิวปกป้องผิวจากมลภาวะทำให้ผิวชุ่มชื้นสูตรที่อยู่ได้นานไม่ทำให้เกิดสิว</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3071,11 +2676,6 @@
           <t>ไม่ทำให้ผิวขาวและหมองคล้ำ รู้สึกสดชื่นกับผิว ปกป้องผิวจากมลภาวะ ใช้ง่ายและผสมเข้ากับผิวได้ดี เหมาะสำหรับใช้ในชีวิตประจำวัน ไม่ทำให้ผิวขาวและหมองคล้ำ</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>ไม่ทำให้ผิวขาวและหมองคล้ำรู้สึกสดชื่นกับผิวปกป้องผิวจากมลภาวะใช้ง่ายและผสมเข้ากับผิวได้ดีเหมาะสำหรับใช้ในชีวิตประจำวันไม่ทำให้ผิวขาวและหมองคล้ำ</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3101,12 +2701,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>ส่งเร็วค่ะ สั่งวันจันทร์ ได้รับวันพุธ สินค้าใส่กล่องแพ็คกันกระแทกมาดี แต่กล่องเยินพอควร ซื้อตอนลดราคาเหลือ  บาท เป็นของใหม่ ผลิต  ขวดใหญ่ ปริมาณ  มล เคยใช้แล้วซึมเข้าผิวดีอยู่ ไม่เหนอะหนะ คุ้มค่ามากมายค่ะ</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>ส่งเร็วค่ะสั่งวันจันทร์ได้รับวันพุธสินค้าใส่กล่องแพ็คกันกระแทกมาดีแต่กล่องเยินพอควรซื้อตอนลดราคาเหลือบาทเป็นของใหม่ผลิตขวดใหญ่ปริมาณมลเคยใช้แล้วซึมเข้าผิวดีอยู่ไม่เหนอะหนะคุ้มค่ามากมายค่ะ</t>
+          <t>ส่งเร็วค่ะ สั่งวันจันทร์ ได้รับวันพุธ สินค้าใส่กล่องแพ็คกันกระแทกมาดี แต่กล่องเยินพอควร ซื้อตอนลดราคาเหลือ บาท เป็นของใหม่ ผลิต ขวดใหญ่ ปริมาณ มล เคยใช้แล้วซึมเข้าผิวดีอยู่ ไม่เหนอะหนะ คุ้มค่ามากมายค่ะ</t>
         </is>
       </c>
     </row>
@@ -3137,11 +2732,6 @@
           <t>ใช้ง่ายและผสมเข้ากับผิวได้ดี ใช้ง่ายและผสมเข้ากับผิวได้ดี ใช้ง่ายและผสมเข้ากับผิวได้ดี ใช้ง่ายและผสมเข้ากับผิวได้ดี</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>ใช้ง่ายและผสมเข้ากับผิวได้ดีใช้ง่ายและผสมเข้ากับผิวได้ดีใช้ง่ายและผสมเข้ากับผิวได้ดีใช้ง่ายและผสมเข้ากับผิวได้ดี</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3167,12 +2757,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>ตอนนี้เพิ่งได้ใช้ครั้งแรกสินค้าตรงปกไม่จบตาวันหมดอายุยาวดีถึง  และมีเนื้อของครีมค่อนข้างใสแต่แห้งต่อผิวทำให้คนหน้ามันใช้ได้ดีและเหมาะกับสภาพผิวในช่วงอากาศร้อน</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>ตอนนี้เพิ่งได้ใช้ครั้งแรกสินค้าตรงปกไม่จบตาวันหมดอายุยาวดีถึงและมีเนื้อของครีมค่อนข้างใสแต่แห้งต่อผิวทำให้คนหน้ามันใช้ได้ดีและเหมาะกับสภาพผิวในช่วงอากาศร้อน</t>
+          <t>ตอนนี้เพิ่งได้ใช้ครั้งแรกสินค้าตรงปกไม่จบตาวันหมดอายุยาวดีถึง และมีเนื้อของครีมค่อนข้างใสแต่แห้งต่อผิวทำให้คนหน้ามันใช้ได้ดีและเหมาะกับสภาพผิวในช่วงอากาศร้อน</t>
         </is>
       </c>
     </row>
@@ -3203,11 +2788,6 @@
           <t>ได้รับเรียบร้อยแล้วค่ะจัดส่งสินค้าไวแพ็คสินค้ามาดีมากค่ะ ได้รับเรียบร้อยแล้วค่ะจัดส่งสินค้าไวแพ็คสินค้ามาดีมากค่ะ</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>ได้รับเรียบร้อยแล้วค่ะจัดส่งสินค้าไวแพ็คสินค้ามาดีมากค่ะได้รับเรียบร้อยแล้วค่ะจัดส่งสินค้าไวแพ็คสินค้ามาดีมากค่ะ</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3236,11 +2816,6 @@
           <t>กันแดดนี้ยกให้เป็นเดอะเบสค่ะ เนื้อดี ทาแล้วซึมผิวไว ไม่หนักหน้า ไม่เป็นคราบ ส่งเร็วมากค่ะ มีส่วนลดด้วย ป้องกันแดดสูง สูตรที่อยู่ได้นาน ทำให้ผิวเรียบเนียนและไม่มัน ทำให้ผิวชุ่มชื้น ปกป้องผิวจากมลภาวะ</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>กันแดดนี้ยกให้เป็นเดอะเบสค่ะเนื้อดีทาแล้วซึมผิวไวไม่หนักหน้าไม่เป็นคราบส่งเร็วมากค่ะมีส่วนลดด้วยป้องกันแดดสูงสูตรที่อยู่ได้นานทำให้ผิวเรียบเนียนและไม่มันทำให้ผิวชุ่มชื้นปกป้องผิวจากมลภาวะ</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3269,11 +2844,6 @@
           <t>ปกป้องผิวจากมลภาวะ ป้องกันแดดสูง ไม่ทำให้ผิวขาวและหมองคล้ำ ใช้ง่ายและผสมเข้ากับผิวได้ดี ซึมเข้าสู่ผิวได้อย่างรวดเร็ว ทำให้ผิวชุ่มชื้น ป้องกันแดดสูง ปกป้องผิวจากมลภาวะ ทำให้ผิวชุ่มชื้น ทำให้ผิวชุ่มชื้น ทำให้ผิวชุ่มชื้น ซึมเข้าสู่ผิวได้อย่างรวดเร็ว</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>ปกป้องผิวจากมลภาวะป้องกันแดดสูงไม่ทำให้ผิวขาวและหมองคล้ำใช้ง่ายและผสมเข้ากับผิวได้ดีซึมเข้าสู่ผิวได้อย่างรวดเร็วทำให้ผิวชุ่มชื้นป้องกันแดดสูงปกป้องผิวจากมลภาวะทำให้ผิวชุ่มชื้นทำให้ผิวชุ่มชื้นทำให้ผิวชุ่มชื้นซึมเข้าสู่ผิวได้อย่างรวดเร็ว</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3299,12 +2869,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ราคาดีม้ากกกกเมื่อเทีบยบกับปริมาณและประสิทธิภาพในการกันแดด ทาแล้วฟินิชหน้าฉ่ำมาก เหมือนผิว เล่นกับแสงสุดๆ เวลาเหงื่อออกก็จะผิวระยิบระยับ กันน้ำได้จริงค่ะ จากที่ใช้ แต่ติดอย่างเดียว แสบตา</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>ราคาดีม้าเมื่อเทกับปริมาณและประสิทธิภาพในการกันแดดทาแล้วนิชหน้าฉ่ำมากเหมือนผิวเล่นกับแสงสุดเวลาเหงื่อก็จะผิวระยิบระยับกันน้ำได้จริงค่ะจากที่ใช้แต่ติดอย่างเดียวแสบตา</t>
+          <t>ราคาดีม้ากกกกเมื่อเท กับปริมาณและประสิทธิภาพในการกันแดด ทาแล้ว นิชหน้าฉ่ำมาก เหมือนผิว เล่นกับแสงสุด เวลาเหงื่อออกก็จะผิวระยิบระยับ กันน้ำได้จริงค่ะ จากที่ใช้ แต่ติดอย่างเดียว แสบตา</t>
         </is>
       </c>
     </row>
@@ -3335,11 +2900,6 @@
           <t>ไม่ทำให้ผิวขาวและหมองคล้ำ ทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติ รู้สึกสดชื่นกับผิว อ่อนโยนต่อผิวที่แพ้ง่าย</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>ไม่ทำให้ผิวขาวและหมองคล้ำทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติรู้สึกสดชื่นกับผิวอ่อนโยนต่อผิวที่แพ้ง่าย</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3365,12 +2925,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ได้รับสินค้าครบถ้วนตามออเดอร์ สินค้าไม่เสียหาย สั่งซื้อวันที่  รับสินค้าวันที่  ทางร้านจัดส่งรวดเร็วมาก  ของแท้แน่นอน         กันแดดไม่เหนียว ไม่มัน ไม่เยิ้ม   เยี่ยมๆ</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>ได้รับสินค้าครบถ้วนตามออเดอร์สินค้าไม่เสียหายสั่งซื้อวันที่รับสินค้าวันที่ทางร้านจัดส่งรวดเร็วมากของแท้แน่นอนกันแดดไม่เหนียวไม่มันไม่เยิ้มเยี่ยม</t>
+          <t>ได้รับสินค้าครบถ้วนตามออเดอร์ สินค้าไม่เสียหาย สั่งซื้อวันที่ รับสินค้าวันที่ ทางร้านจัดส่งรวดเร็วมาก ของแท้แน่นอน กันแดดไม่เหนียว ไม่มัน ไม่เยิ้ม เยี่ยม</t>
         </is>
       </c>
     </row>
@@ -3398,12 +2953,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>เนื้อกันแบบบางเบาซึมซับ ดีจัดส่งรวดเร็ว ของแท้แน่นอนจากร้านค้า  กลิ่นหอมนมอ่อนๆ สำหรับสีฟ้าจะเย็นๆเวลาทา</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>เนื้อกันแบเบาซึมซับดีจัดส่งรวดเร็วของแท้แน่นอนจากร้านค้ากลิ่นหอมนมอ่อนสำหรับสีฟ้าจะเย็นเวลาทา</t>
+          <t>เนื้อกันแบบบางเบาซึมซับ ดีจัดส่งรวดเร็ว ของแท้แน่นอนจากร้านค้า กลิ่นหอมนมอ่อน สำหรับสีฟ้าจะเย็น เวลาทา</t>
         </is>
       </c>
     </row>
@@ -3434,11 +2984,6 @@
           <t>ปกป้องผิวจากมลภาวะ ใช้ง่ายและผสมเข้ากับผิวได้ดี ทำให้ผิวชุ่มชื้น เหมาะสำหรับใช้ในชีวิตประจำวัน</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>ปกป้องผิวจากมลภาวะใช้ง่ายและผสมเข้ากับผิวได้ดีทำให้ผิวชุ่มชื้นเหมาะสำหรับใช้ในชีวิตประจำวัน</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3464,12 +3009,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>คุณภาพดี  ป้องกันรังสี  ได้ดี ทำให้หน้าขาวผ่อง    เนื้อสัมผัสนุ่ม  ละเอีบดบางเบา ไม่เหนอะหนะ หนัหน้า แนะนำ ไม่แสบตา     ประสิทธิภาพป้องกันแสงแดดได้ดี      มีส่วนผสมของ</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>คุณภาพดีป้องกันรังสีได้ดีทำให้หน้าขาวผ่องเนื้อสัมผัสนุ่มละเอบางเบาไม่เหนอะหนะน้าแนะนำไม่แสบตาประสิทธิภาพป้องกันแสงแดดได้ดีมีส่วนผสมของ</t>
+          <t>คุณภาพดี ป้องกันรังสี ได้ดี ทำให้หน้าขาวผ่อง เนื้อสัมผัสนุ่ม ละเอ บางเบา ไม่เหนอะหนะ น้า แนะนำ ไม่แสบตา ประสิทธิภาพป้องกันแสงแดดได้ดี มีส่วนผสมของ</t>
         </is>
       </c>
     </row>
@@ -3497,12 +3037,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>ใช้ดีไม่แสบหน้า หน้าไม่เป็นขุย มีโทนอัพผิวได้ระดับนึง แต่ไม่วอก ไม่เทา ซ้ำเป็นรอบที่เท่าไหร่แล้วไม่รู้</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>ใช้ดีไม่แสบหน้าหน้าไม่เป็นขุยมีโทนผิวได้ระดับนึงแต่ไม่วอกไม่เทาซ้ำเป็นรอบที่เท่าไหร่แล้วไม่รู้</t>
+          <t>ใช้ดีไม่แสบหน้า หน้าไม่เป็นขุย มีโทน ผิวได้ระดับนึง แต่ไม่วอก ไม่เทา ซ้ำเป็นรอบที่เท่าไหร่แล้วไม่รู้</t>
         </is>
       </c>
     </row>
@@ -3533,11 +3068,6 @@
           <t>ยูวีบีโอกันแดดชนิดเจลซึ่งเป็นคนหน้าแห้งก็ต้องการที่แบบบางเบานิดนึงนี่แหละจะออกไปเที่ยวต่างประเทศพอดีได้ส่วนลดก็เลยสั่งมา</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>ยูวีบีโอกันแดดชนิดเจลซึ่งเป็นคนหน้าแห้งก็ต้องการที่แบเบานิดนึงนี่แหละจะออกไปเที่ยวต่างประเทศพอดีได้ส่วนลดก็เลยสั่งมา</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3563,12 +3093,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>จัดส่งรวดเร็วได้รับครบถูกต้องตามสั่ง ก่อนส่งพนักงานโทรแจ้งก่อน ราคาไม่แพง ได้ราคา คุ้มค่า ใช้กันยาวใช้ของดี หน้าเราจะปลอดภัย  แดดประเทศไทยแรงมาก</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>จัดส่งรวดเร็วได้รับครบถูกต้องตามสั่งก่อนส่งพนักงานโทรแจ้งก่อนราคาไม่แพงได้ราคาคุ้มค่าใช้กันยาวใช้ของดีหน้าเราจะปลอดภัยแดดประเทศไทยแรงมาก</t>
+          <t>จัดส่งรวดเร็วได้รับครบถูกต้องตามสั่ง ก่อนส่งพนักงานโทรแจ้งก่อน ราคาไม่แพง ได้ราคา คุ้มค่า ใช้กันยาวใช้ของดี หน้าเราจะปลอดภัย แดดประเทศไทยแรงมาก</t>
         </is>
       </c>
     </row>
@@ -3596,12 +3121,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>กันแดด  ดีครับถือว่าเป็นแบรนด์ญี่ปุ่นมาตรฐานตามญี่ปุ่นใช้ดีมากครับราคาย่อมเยาทาได้ไม่ต้องกลัวเปลืองครับทาหน้าไม่หมดเอามาทาตัวยังไม่เสียดายครับ</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>กันแดดดีครับถือว่าเป็นแบรนด์ญี่ปุ่นมาตรฐานตามญี่ปุ่นใช้ดีมากครับราคาย่อมเยาทาได้ไม่ต้องกลัวเปลืองครับทาหน้าไม่หมดเอามาทาตัวยังไม่เสียดายครับ</t>
+          <t>กันแดด ดีครับถือว่าเป็นแบรนด์ญี่ปุ่นมาตรฐานตามญี่ปุ่นใช้ดีมากครับราคาย่อมเยาทาได้ไม่ต้องกลัวเปลืองครับทาหน้าไม่หมดเอามาทาตัวยังไม่เสียดายครับ</t>
         </is>
       </c>
     </row>
@@ -3629,12 +3149,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>ใช้เป็นกันแดดสำหรับทาแขนเวลาไปเที่ยว เพราะจะมีเหงื่ออกมาก ต้องใล้กันแดดที่ทนน้ำทนเหงื่อ และบางเบา แต่การกันแดดยังไม่ถึงกับดี ยังมีรอยคล้ำๆบ้างทั้งที่ทาปริมานเยอะ และออกแดดไม่ถึง  ชม</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>ใช้เป็นกันแดดสำหรับทาแขนเวลาไปเที่ยวเพราะจะมีเหงื่ออกมากต้องกันแดดที่ทนน้ำทนเหงื่อและบางเบาแต่การกันแดดยังไม่ถึงกับดียังมีรอยคล้ำบ้างทั้งที่ทาปริมานเยอะและออกแดดไม่ถึงชม</t>
+          <t>ใช้เป็นกันแดดสำหรับทาแขนเวลาไปเที่ยว เพราะจะมีเหงื่ออกมาก ต้อง กันแดดที่ทนน้ำทนเหงื่อ และบางเบา แต่การกันแดดยังไม่ถึงกับดี ยังมีรอยคล้ำ บ้างทั้งที่ทาปริมานเยอะ และออกแดดไม่ถึง ชม</t>
         </is>
       </c>
     </row>
@@ -3665,11 +3180,6 @@
           <t>สูตรที่อยู่ได้นาน ทำให้ผิวเรียบเนียนและไม่มัน เหมาะสำหรับใช้ในชีวิตประจำวัน ไม่ทำให้เกิดสิว เบาสบายและไม่มัน</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>สูตรที่อยู่ได้นานทำให้ผิวเรียบเนียนและไม่มันเหมาะสำหรับใช้ในชีวิตประจำวันไม่ทำให้เกิดสิวเบาสบายและไม่มัน</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3695,12 +3205,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>ดีราคาถูกได้ปริมาณเยอะมาก  คุ้มมากกับราคาแค่นิดๆ ลองทาดูแล้วเนื้อเป็นน้ำๆเหลวๆทาแล้วผิวจะขาวขึ้นแอบวอกนิดๆแต่ก็ได้อยู่มั้ง  ทาแล้วพอแห้งจะติดหน้าไปเลยน่าจะกันน้ำได้ดีเลยแหละ</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>ดีราคาถูกได้ปริมาณเยอะมากคุ้มมากกับราคาแค่นิดๆลองทาดูแล้วเนื้อเป็นน้ำเหลวทาแล้วผิวจะขาวขึ้นแอบวอกนิดๆแต่ก็ได้อยู่มั้งทาแล้วพอแห้งจะติดหน้าไปเลยน่าจะกันน้ำได้ดีเลยแหละ</t>
+          <t>ดีราคาถูกได้ปริมาณเยอะมาก คุ้มมากกับราคาแค่นิดๆ ลองทาดูแล้วเนื้อเป็นน้ำ เหลว ทาแล้วผิวจะขาวขึ้นแอบวอกนิดๆแต่ก็ได้อยู่มั้ง ทาแล้วพอแห้งจะติดหน้าไปเลยน่าจะกันน้ำได้ดีเลยแหละ</t>
         </is>
       </c>
     </row>
@@ -3731,11 +3236,6 @@
           <t>ชอบครีมกันแดด สูตรน้ำเนื้อเจลแบบนี้ เกลี่ยง่ายไม่เป็นคราบ ใช้เป็นประจำค่ะ ร้านค้าแพ็คสินค้ามาดีมาก</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>ชอบครีมกันแดดสูตรน้ำเนื้อเจลแบบนี้เกลี่ยง่ายไม่เป็นคราบใช้เป็นประจำค่ะร้านค้าแพ็คสินค้ามาดีมาก</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3764,11 +3264,6 @@
           <t>ซึมเข้าสู่ผิวได้อย่างรวดเร็ว เหมาะสำหรับใช้ในชีวิตประจำวัน ไม่ทำให้เกิดสิว ปกป้องผิวจากมลภาวะ</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>ซึมเข้าสู่ผิวได้อย่างรวดเร็วเหมาะสำหรับใช้ในชีวิตประจำวันไม่ทำให้เกิดสิวปกป้องผิวจากมลภาวะ</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3797,11 +3292,6 @@
           <t>เหมาะสำหรับใช้ในชีวิตประจำวัน เบาสบายและไม่มัน ทำให้ผิวเรียบเนียนและไม่มัน ปกป้องผิวจากมลภาวะ</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>เหมาะสำหรับใช้ในชีวิตประจำวันเบาสบายและไม่มันทำให้ผิวเรียบเนียนและไม่มันปกป้องผิวจากมลภาวะ</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3830,11 +3320,6 @@
           <t>สินค้าครบ แพ็คสินค้าเรียบร้อย แข็งแรง รอบนี้ส่งข้านิดหน่อย เคยใช้แล้ว ดี ชอบ ราคาโปร มีส่วนลดเยอะ</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>สินค้าครบแพ็คสินค้าเรียบร้อยแข็งแรงรอบนี้ส่งข้านิดหน่อยเคยใช้แล้วดีชอบราคาโปรมีส่วนลดเยอะ</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3863,11 +3348,6 @@
           <t>เหมาะสำหรับใช้ในชีวิตประจำวัน ปกป้องผิวจากมลภาวะ ไม่ทำให้เกิดสิว ซึมเข้าสู่ผิวได้อย่างรวดเร็ว</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>เหมาะสำหรับใช้ในชีวิตประจำวันปกป้องผิวจากมลภาวะไม่ทำให้เกิดสิวซึมเข้าสู่ผิวได้อย่างรวดเร็ว</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3896,11 +3376,6 @@
           <t>รู้สึกสดชื่นกับผิว ทำให้ผิวชุ่มชื้น ใช้ง่ายและผสมเข้ากับผิวได้ดี ทำให้ผิวเรียบเนียนและไม่มัน</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>รู้สึกสดชื่นกับผิวทำให้ผิวชุ่มชื้นใช้ง่ายและผสมเข้ากับผิวได้ดีทำให้ผิวเรียบเนียนและไม่มัน</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3929,11 +3404,6 @@
           <t>เบาสบายและไม่มัน ซึมเข้าสู่ผิวได้อย่างรวดเร็ว ไม่ทำให้เกิดสิว เหมาะสำหรับใช้ในชีวิตประจำวัน</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>เบาสบายและไม่มันซึมเข้าสู่ผิวได้อย่างรวดเร็วไม่ทำให้เกิดสิวเหมาะสำหรับใช้ในชีวิตประจำวัน</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3959,12 +3429,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>ยังไม่เคยใช้เห็นหลอดใหญ่ดีขนาดตั้ง  นิ้วได้โค้ดลดก็เลยลดได้เข้าไปอีก ของมียี่ห้ออยู่ก็น่าจะดี</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>ยังไม่เคยใช้เห็นหลอดใหญ่ดีขนาดตั้งนิ้วได้โค้ดลดก็เลยลดได้เข้าไปอีกของมียี่ห้ออยู่ก็น่าจะดี</t>
+          <t>ยังไม่เคยใช้เห็นหลอดใหญ่ดีขนาดตั้ง นิ้วได้โค้ดลดก็เลยลดได้เข้าไปอีก ของมียี่ห้ออยู่ก็น่าจะดี</t>
         </is>
       </c>
     </row>
@@ -3995,11 +3460,6 @@
           <t>ซึมเข้าสู่ผิวได้อย่างรวดเร็ว ไม่ทำให้ผิวขาวและหมองคล้ำ ทำให้ผิวชุ่มชื้น สูตรที่อยู่ได้นาน</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>ซึมเข้าสู่ผิวได้อย่างรวดเร็วไม่ทำให้ผิวขาวและหมองคล้ำทำให้ผิวชุ่มชื้นสูตรที่อยู่ได้นาน</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4025,12 +3485,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>ได้รับของแล้ว แพ็คดี ส่งไว ราคาก็ถูก สั่งจาก  โดยตรง ไม่น่าจะปลอม  กันแดดใช้ดี ใช้มานานแล้ว</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>ได้รับของแล้วแพ็คดีส่งไวราคาก็ถูกสั่งจากโดยตรงไม่น่าจะปลอมกันแดดใช้ดีใช้มานานแล้ว</t>
+          <t>ได้รับของแล้ว แพ็คดี ส่งไว ราคาก็ถูก สั่งจาก โดยตรง ไม่น่าจะปลอม กันแดดใช้ดี ใช้มานานแล้ว</t>
         </is>
       </c>
     </row>
@@ -4061,11 +3516,6 @@
           <t>ไม่ทำให้เกิดสิว ใช้ง่ายและผสมเข้ากับผิวได้ดี ทำให้ผิวเรียบเนียนและไม่มัน เบาสบายและไม่มัน</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>ไม่ทำให้เกิดสิวใช้ง่ายและผสมเข้ากับผิวได้ดีทำให้ผิวเรียบเนียนและไม่มันเบาสบายและไม่มัน</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4094,11 +3544,6 @@
           <t>สินค้าตรงปก ส่งเร็วมาก</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>สินค้าตรงปกส่งเร็วมาก</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -4127,11 +3572,6 @@
           <t>ไม่ทำให้ผิวขาวและหมองคล้ำ ไม่ทำให้เกิดสิว ใช้ง่ายและผสมเข้ากับผิวได้ดี สูตรที่อยู่ได้นาน</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>ไม่ทำให้ผิวขาวและหมองคล้ำไม่ทำให้เกิดสิวใช้ง่ายและผสมเข้ากับผิวได้ดีสูตรที่อยู่ได้นาน</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -4160,11 +3600,6 @@
           <t>สินค้าคถณภาพดีมากครับ ราคาถูกกว่าในห้าง การแพ้คสินค้าดี การจัดส่งรวดเร็ว เยี่ยมไปเลยครับ</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>สินค้าภาพดีมากครับราคาถูกกว่าในห้างการแพ้สินค้าดีการจัดส่งรวดเร็วเยี่ยมไปเลยครับ</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4193,11 +3628,6 @@
           <t>ส่งเร็วมาก สินค้าตรงตามที่สั่ง แต่ยังไม่ได้ลอง ส่งเร็วมาก สินค้าตรงตามที่สั่ง แต่ยังไม่ได้ลอง</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>ส่งเร็วมากสินค้าตรงตามที่สั่งแต่ยังไม่ได้ลองส่งเร็วมากสินค้าตรงตามที่สั่งแต่ยังไม่ได้ลอง</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4226,11 +3656,6 @@
           <t>ตามมาตรฐานครับ ใช้มาตั้งแต่อยู่มหาลัย กันได้ดีหน้าไม่ค่อยวอก ไม่ค่อยเหนียวด้วย คุณภาพตามราคา</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>ตามมาตรฐานครับใช้มาตั้งแต่อยู่มหาลัยกันได้ดีหน้าไม่ค่อยวอกไม่ค่อยเหนียวด้วยคุณภาพตามราคา</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4259,11 +3684,6 @@
           <t>ส่งไว ส่งเร็ว ของแท้ มั่นใจ ราคาดี ไม่ต้องออกไปหาซื้อเอง คุ้มค่า ราคา คุณภาพ เนื้อเจลเบาสบาย</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>ส่งไวส่งเร็วของแท้มั่นใจราคาดีไม่ต้องออกไปหาซื้อเองคุ้มค่าราคาคุณภาพเนื้อเจลเบาสบาย</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4289,12 +3709,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>คุ้มค่ามากสั่งตอน  ใช้ประจำอยู่แล้ว คุณภาพดีมาก ซื้อบ่อยมากครับ ช่วงนี้ลุยแดดไม่เปนฝ้าเลย</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>คุ้มค่ามากสั่งตอนใช้ประจำอยู่แล้วคุณภาพดีมากซื้อบ่อยมากครับช่วงนี้ลุยแดดไม่ฝ้าเลย</t>
+          <t>คุ้มค่ามากสั่งตอน ใช้ประจำอยู่แล้ว คุณภาพดีมาก ซื้อบ่อยมากครับ ช่วงนี้ลุยแดดไม่ ฝ้าเลย</t>
         </is>
       </c>
     </row>
@@ -4325,11 +3740,6 @@
           <t>จัดส่งสินค้ารวดเร็วดี ใช้โค้ดส่วนลดและโค้ดส่งฟรีได้ด้วย สินค้ามีคุณภาพดี ไว้จะอุดหนุนอีกค่ะ</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>จัดส่งสินค้ารวดเร็วดีใช้โค้ดส่วนลดและโค้ดส่งฟรีได้ด้วยสินค้ามีคุณภาพดีไว้จะอุดหนุนอีกค่ะ</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4358,11 +3768,6 @@
           <t>ซึมเข้าสู่ผิวได้อย่างรวดเร็ว เหมาะสำหรับใช้ในชีวิตประจำวัน ใช้ง่ายและผสมเข้ากับผิวได้ดี</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>ซึมเข้าสู่ผิวได้อย่างรวดเร็วเหมาะสำหรับใช้ในชีวิตประจำวันใช้ง่ายและผสมเข้ากับผิวได้ดี</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4391,11 +3796,6 @@
           <t>ส่งสินค้ารวดเร็วทันใจ สินค้าตรงตามประกาศ มีคุณภาพน่าใช้ ถูกใจคนซื้อ ร้านค้าร้านนี้แนะนำครับ</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>ส่งสินค้ารวดเร็วทันใจสินค้าตรงตามประกาศมีคุณภาพน่าใช้ถูกใจคนซื้อร้านค้าร้านนี้แนะนำครับ</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -4424,11 +3824,6 @@
           <t>เบาสบายและไม่มัน ใช้ง่ายและผสมเข้ากับผิวได้ดี ไม่อุดตันรูขุมขน อ่อนโยนต่อผิวที่แพ้ง่าย</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>เบาสบายและไม่มันใช้ง่ายและผสมเข้ากับผิวได้ดีไม่อุดตันรูขุมขนอ่อนโยนต่อผิวที่แพ้ง่าย</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -4457,11 +3852,6 @@
           <t>ส่งสินค้าไว ไม่ชำรุดเสียหาย ได้มาตอนแฟลชเซลล์ ราคาดีมาก ร้าน ของแท้ไม่ต้องกลัวปลอม</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>ส่งสินค้าไวไม่ชำรุดเสียหายได้มาตอนแฟลชเซลล์ราคาดีมากร้านของแท้ไม่ต้องกลัวปลอม</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4490,11 +3880,6 @@
           <t>เบาสบายและไม่มัน รู้สึกสดชื่นกับผิว ไม่ทำให้เกิดสิว ไม่อุดตันรูขุมขน ไม่ทำให้เกิดสิว</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>เบาสบายและไม่มันรู้สึกสดชื่นกับผิวไม่ทำให้เกิดสิวไม่อุดตันรูขุมขนไม่ทำให้เกิดสิว</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4523,11 +3908,6 @@
           <t>ทำให้ผิวเรียบเนียนและไม่มัน เหมาะสำหรับใช้ในชีวิตประจำวัน ใช้ง่ายและผสมเข้ากับผิวได้ดี</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>ทำให้ผิวเรียบเนียนและไม่มันเหมาะสำหรับใช้ในชีวิตประจำวันใช้ง่ายและผสมเข้ากับผิวได้ดี</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4556,11 +3936,6 @@
           <t>ได้รับสินค้าแล้ว เรียบร้อยดี ใช้ยี่ห้อนี้มาอย่างยาวนาน มีผลิภัณฑ์ใหม่สูตรใหม่ออกมาเรื่อยๆ</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>ได้รับสินค้าแล้วเรียบร้อยดีใช้ยี่ห้อนี้มาอย่างยาวนานมีผลิภัณฑ์ใหม่สูตรใหม่ออกมาเรื่อยๆ</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4589,11 +3964,6 @@
           <t>ป้องกันแดดสูง เหมาะสำหรับใช้ในชีวิตประจำวัน อ่อนโยนต่อผิวที่แพ้ง่าย เบาสบายและไม่มัน</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>ป้องกันแดดสูงเหมาะสำหรับใช้ในชีวิตประจำวันอ่อนโยนต่อผิวที่แพ้ง่ายเบาสบายและไม่มัน</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -4619,12 +3989,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>ดีๆๆรู้สึกสดชื่นกับผิว ใช้ง่ายและผสมเข้ากับผิวได้ดี ไม่ทำให้เกิดสิว เบาสบายและไม่มัน</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>ดีรู้สึกสดชื่นกับผิวใช้ง่ายและผสมเข้ากับผิวได้ดีไม่ทำให้เกิดสิวเบาสบายและไม่มัน</t>
+          <t>ดี รู้สึกสดชื่นกับผิว ใช้ง่ายและผสมเข้ากับผิวได้ดี ไม่ทำให้เกิดสิว เบาสบายและไม่มัน</t>
         </is>
       </c>
     </row>
@@ -4655,11 +4020,6 @@
           <t>ใช้ง่ายและผสมเข้ากับผิวได้ดี ปกป้องผิวจากมลภาวะ รู้สึกสดชื่นกับผิว เบาสบายและไม่มัน</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>ใช้ง่ายและผสมเข้ากับผิวได้ดีปกป้องผิวจากมลภาวะรู้สึกสดชื่นกับผิวเบาสบายและไม่มัน</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4688,11 +4048,6 @@
           <t>ใช้ง่ายและผสมเข้ากับผิวได้ดี เนื้อเบา ไม่เหนียวแนะเท่าไร ล้างออกไม่ยากมาก ราคาก็ไม่แรง</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>ใช้ง่ายและผสมเข้ากับผิวได้ดีเนื้อเบาไม่เหนียวแนะเท่าไรล้างออกไม่ยากมากราคาก็ไม่แรง</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -4721,11 +4076,6 @@
           <t>ป้องกันแดดสูง ทำให้ผิวชุ่มชื้น ไม่ทำให้ผิวขาวและหมองคล้ำ ทำให้ผิวเรียบเนียนและไม่มัน สูตรที่อยู่ได้นาน ทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติ ปกป้องผิวจากมลภาวะ</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>ป้องกันแดดสูงทำให้ผิวชุ่มชื้นไม่ทำให้ผิวขาวและหมองคล้ำทำให้ผิวเรียบเนียนและไม่มันสูตรที่อยู่ได้นานทำให้ผิวดูสุขภาพดีและเป็นธรรมชาติปกป้องผิวจากมลภาวะ</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -4751,12 +4101,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>ขนส่งรวดเร็ว อยู่ในสภาพดี ซื้อช่วงวันเกิดลาซาด้า ได้ลดแล้วลดอีก มีของแถมด้วยขอบคุณมากค่ะ</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>ขนส่งรวดเร็วอยู่ในสภาพดีซื้อช่วงวันเกิดลาซาได้ลดแล้วลดอีกมีของแถมด้วยขอบคุณมากค่ะ</t>
+          <t>ขนส่งรวดเร็ว อยู่ในสภาพดี ซื้อช่วงวันเกิดลาซา ได้ลดแล้วลดอีก มีของแถมด้วยขอบคุณมากค่ะ</t>
         </is>
       </c>
     </row>
@@ -4784,12 +4129,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>แพ็คมาดีตลอด ที่หนึ่งในใจ กันแดดตัวนี้หมดไปหลายหลอดละ ใช้มาจะ  ปีละ คนผิวมันเลิฟเลอ ซึมเร็ว สบายผิวดี กันแดดได้ดี ถูก ดีย์</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>แพ็คมาดีตลอดที่หนึ่งในใจกันแดดตัวนี้หมดไปหลายหลอดละใช้มาจะปีละคนผิวมันเลิฟเลอซึมเร็วสบายผิวดีกันแดดได้ดีถูก</t>
+          <t>แพ็คมาดีตลอด ที่หนึ่งในใจ กันแดดตัวนี้หมดไปหลายหลอดละ ใช้มาจะ ปีละ คนผิวมันเลิฟเลอ ซึมเร็ว สบายผิวดี กันแดดได้ดี ถูก</t>
         </is>
       </c>
     </row>
@@ -4820,11 +4160,6 @@
           <t>หมดอายุ</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>หมดอายุ</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -4853,11 +4188,6 @@
           <t>หมดอายุ</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>หมดอายุ</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -4883,12 +4213,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>เนื้อครีมรู้สึกไม่เหมือนกับที่เคยไช้ กลิ่นก็แรงกว่าที่เคยไช้ ปกติเกลี่ยแล้วครีมจะซึมไวไปกับผิว อันนี้ไม่ได้รู้สึกแบบนั้นเลยค่ะ</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>เนื้อครีมรู้สึกไม่เหมือนกับที่เคยกลิ่นก็แรงกว่าที่เคยปกติเกลี่ยแล้วครีมจะซึมไวไปกับผิวอันนี้ไม่ได้รู้สึกแบบนั้นเลยค่ะ</t>
+          <t>เนื้อครีมรู้สึกไม่เหมือนกับที่เคย กลิ่นก็แรงกว่าที่เคย ปกติเกลี่ยแล้วครีมจะซึมไวไปกับผิว อันนี้ไม่ได้รู้สึกแบบนั้นเลยค่ะ</t>
         </is>
       </c>
     </row>
@@ -4916,12 +4241,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>ขนส่งแย่มาก นัดรับสินค้าไม่มาตามเวลา เรารอ เสียเวลาทำงาน นัดเที่ยง มา เกือบ  โมงเย็น บอกเราว่างานยุ่ง  แล้วจะนัดเราเพื่ออะไร</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>ขนส่งแย่มากนัดรับสินค้าไม่มาตามเวลาเรารอเสียเวลาทำงานนัดเที่ยงมาเกือบโมงเย็นบอกเราว่างานยุ่งแล้วจะนัดเราเพื่ออะไร</t>
+          <t>ขนส่งแย่มาก นัดรับสินค้าไม่มาตามเวลา เรารอ เสียเวลาทำงาน นัดเที่ยง มา เกือบ โมงเย็น บอกเราว่างานยุ่ง แล้วจะนัดเราเพื่ออะไร</t>
         </is>
       </c>
     </row>
@@ -4952,11 +4272,6 @@
           <t>หมดอายุ</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>หมดอายุ</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -4985,11 +4300,6 @@
           <t>สินค้าน่าจะเป็นของปลอมเนื้อครีมไม่เหมือนกับที่ซื้อในห้าง</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>สินค้าน่าจะเป็นของปลอมเนื้อครีมไม่เหมือนกับที่ซื้อในห้าง</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -5015,12 +4325,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>ร้านนี้ขายสินค้าหมดอายุคะ เราถึงว่า ทำไมเนื้อครีมแปลกๆ เราสามารถฟ้องได้นะคะ ถ้าเราจะทำ อยากให้รีบผิดชอบด้วย หลักฐานเวลาซื้อก็มี</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>ร้านนี้ขายสินค้าหมดอายุคะเราถึงว่าทำไมเนื้อครีมแปลกเราสามารถฟ้องได้นะคะถ้าเราจะทำอยากให้รีบผิดชอบด้วยหลักฐานเวลาซื้อก็มี</t>
+          <t>ร้านนี้ขายสินค้าหมดอายุคะ เราถึงว่า ทำไมเนื้อครีมแปลก เราสามารถฟ้องได้นะคะ ถ้าเราจะทำ อยากให้รีบผิดชอบด้วย หลักฐานเวลาซื้อก็มี</t>
         </is>
       </c>
     </row>
@@ -5051,11 +4356,6 @@
           <t>ของรอนานมากเลยนะคะซื้อไปก็ลืมไปแล้วถ้ารีบใช้ไปที่อื่น</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>ของรอนานมากเลยนะคะซื้อไปก็ลืมไปแล้วถ้ารีบใช้ไปที่อื่น</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -5081,12 +4381,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>สินค้าครบถ้วน แต่ไม่ได้เอาบับเบิ้ลห่อสินค้าให้ดี ทำแค่วางของใส่กล่องแล้ววางบับเบิ้ลบนสินค้ามาชั้น งง ทำเพื่ออะไร ขนส่งก็ช้า ช้ามากกกกๆๆ</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>สินค้าครบถ้วนแต่ไม่ได้เอาห่อสินค้าให้ดีทำแค่วางของใส่กล่องแล้ววางสินค้ามาชั้นงงทำเพื่ออะไรขนส่งก็ช้าช้ามาก</t>
+          <t>สินค้าครบถ้วน แต่ไม่ได้เอา ห่อสินค้าให้ดี ทำแค่วางของใส่กล่องแล้ววาง สินค้ามาชั้น งง ทำเพื่ออะไร ขนส่งก็ช้า ช้ามากกกก</t>
         </is>
       </c>
     </row>
@@ -5114,12 +4409,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>สินค้าดีคะแต่ปลอมเยอะ ต้องซื้อกับบริษัท แต่การจัดส่งภายในบริษัท ล่าช้ามากๆๆ ควรปรับปรุงคะ</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>สินค้าดีคะแต่ปลอมเยอะต้องซื้อกับบริษัทแต่การจัดส่งภายในบริษัทล่าช้ามากควรปรับปรุงคะ</t>
+          <t>สินค้าดีคะแต่ปลอมเยอะ ต้องซื้อกับบริษัท แต่การจัดส่งภายในบริษัท ล่าช้ามาก ควรปรับปรุงคะ</t>
         </is>
       </c>
     </row>
@@ -5150,11 +4440,6 @@
           <t>กลิ่นแอลกอฮอล์แรงมากค่ะ ใช้แล้วแพ้ สิวขึ้น</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>กลิ่นแอลกอฮอล์แรงมากค่ะใช้แล้วแพ้สิวขึ้น</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -5183,11 +4468,6 @@
           <t>ไม่ค่อยซึมค่ะ เหนียว</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>ไม่ค่อยซึมค่ะเหนียว</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -5213,12 +4493,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>เป็นประสบการณ์ที่ไม่ค่อยดีถึงไม่ดีมากๆเลยค่ะ ที่ครั้งนี้สั่งครีมกันแดดกับแชมพูและครีมนวดไป แต่ส่งน้ำยาเช็ดกระจกมาให้ แล้วพอติดต่อไปก็ได้แต่บอกว่ารับเรื่องร้องเรียนแล้ว จะติดต่อกลับในวัน แต่ตอนนี้ยังไม่ได้รับการติดต่อเลยค่ะ แถมพอทวงถามความคืบหน้าไปก็ได้แต่จะตรวจสอบให้ ไม่อยากรีวิวแบบนี้เลยค่ะ ครั้งก่อนๆที่สั่งสินค้าก็ไม่เคยมีปัญหาใดๆ แต่นี่คือสุดจริงๆ  ล่าสุดมีการแก้ไขจากทางร้านค้าคือมีการติดต่อให้ขนส่งมารับสินค้าที่ผิดพลาดกลับไป และทำการส่งสินค้าที่ถูกต้องให้มาเรียบร้อยแล้วค่ะ</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>เป็นประสบการณ์ที่ไม่ค่อยดีถึงไม่ดีมากเลยค่ะที่ครั้งนี้สั่งครีมกันแดดกับแชมพูและครีมนวดไปแต่ส่งน้ำยาเช็ดกระจกมาให้แล้วพอติดต่อไปก็ได้แต่บอกว่ารับเรื่องร้องเรียนแล้วจะติดต่อกลับในวันแต่ตอนนี้ยังไม่ได้รับการติดต่อเลยค่ะแถมพอทวงถามความคืบหน้าไปก็ได้แต่จะตรวจสอบให้ไม่อยากรีวิวแบบนี้เลยค่ะครั้งก่อนที่สั่งสินค้าก็ไม่เคยมีปัญหาใดๆแต่นี่คือสุดจริงๆล่าสุดมีการแก้ไขจากทางร้านค้าคือมีการติดต่อให้ขนส่งมารับสินค้าที่ผิดพลาดกลับไปและทำการส่งสินค้าที่ถูกต้องให้มาเรียบร้อยแล้วค่ะ</t>
+          <t>เป็นประสบการณ์ที่ไม่ค่อยดีถึงไม่ดีมาก เลยค่ะ ที่ครั้งนี้สั่งครีมกันแดดกับแชมพูและครีมนวดไป แต่ส่งน้ำยาเช็ดกระจกมาให้ แล้วพอติดต่อไปก็ได้แต่บอกว่ารับเรื่องร้องเรียนแล้ว จะติดต่อกลับในวัน แต่ตอนนี้ยังไม่ได้รับการติดต่อเลยค่ะ แถมพอทวงถามความคืบหน้าไปก็ได้แต่จะตรวจสอบให้ ไม่อยากรีวิวแบบนี้เลยค่ะ ครั้งก่อน ที่สั่งสินค้าก็ไม่เคยมีปัญหาใดๆ แต่นี่คือสุดจริงๆ ล่าสุดมีการแก้ไขจากทางร้านค้าคือมีการติดต่อให้ขนส่งมารับสินค้าที่ผิดพลาดกลับไป และทำการส่งสินค้าที่ถูกต้องให้มาเรียบร้อยแล้วค่ะ</t>
         </is>
       </c>
     </row>
@@ -5246,12 +4521,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>ของส่งมาเร็ว แต่ไม่แน่ใจว่าจะเป็นของแท้ เพราะไม่ตรงกับที่ใช้อยู่มีข้อแตกต่าง ส่วนเนื้อสัมผัสเหลวกว่าไม่ค่อยค้น และกลิ่นไม่เหมือนกัน อาจเป็นเพราะมาจากแหล่งผลิตไม่เหมือนกัน ของที่ซื้อในไทย   แต่ชิ้นนี้เขียน</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>ของส่งมาเร็วแต่ไม่แน่ใจว่าจะเป็นของแท้เพราะไม่ตรงกับที่ใช้อยู่มีข้อแตกต่างส่วนเนื้อสัมผัสเหลวกว่าไม่ค่อยค้นและกลิ่นไม่เหมือนกันอาจเป็นเพราะมาจากแหล่งผลิตไม่เหมือนกันของที่ซื้อในไทยแต่ชิ้นนี้เขียน</t>
+          <t>ของส่งมาเร็ว แต่ไม่แน่ใจว่าจะเป็นของแท้ เพราะไม่ตรงกับที่ใช้อยู่มีข้อแตกต่าง ส่วนเนื้อสัมผัสเหลวกว่าไม่ค่อยค้น และกลิ่นไม่เหมือนกัน อาจเป็นเพราะมาจากแหล่งผลิตไม่เหมือนกัน ของที่ซื้อในไทย แต่ชิ้นนี้เขียน</t>
         </is>
       </c>
     </row>
@@ -5279,12 +4549,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>ไม่ใช่ตัวที่เคยใช้  สั่งผิดึะ แต่ตะรองใช้ดูก่อนคะ ว่าดีหรือไม่คะ</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>ไม่ใช่ตัวที่เคยใช้สั่งผิแต่ตะรองใช้ดูก่อนคะว่าดีหรือไม่คะ</t>
+          <t>ไม่ใช่ตัวที่เคยใช้ สั่งผิ แต่ตะรองใช้ดูก่อนคะ ว่าดีหรือไม่คะ</t>
         </is>
       </c>
     </row>
@@ -5315,11 +4580,6 @@
           <t>ของที่สั่งคุ้มค่าคุ้มราคามากกก แต่เราสั่งไปแล้วลืมเปลี่ยนที่อยู่ เลยเปลี่ยนทันทีหลังกดสั่ง แต่ร้านส่งของไปที่เดิม ดีที่จนทขนส่งบอกว่าเดี๋ยวส่งมาอีกที่ให้ เลยเสียค่าส่งเพิ่มไปอีก แถมรอเพิ่มอีกวัน</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>ของที่สั่งคุ้มค่าคุ้มราคามากแต่เราสั่งไปแล้วลืมเปลี่ยนที่อยู่เลยเปลี่ยนทันทีหลังกดสั่งแต่ร้านส่งของไปที่เดิมดีที่จนขนส่งบอกว่าเดี๋ยวส่งมาอีกที่ให้เลยเสียค่าส่งเพิ่มไปอีกแถมรอเพิ่มอีกวัน</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -5348,11 +4608,6 @@
           <t>พัสดุยับเยินมาก</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>พัสดุยับเยินมาก</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -5381,11 +4636,6 @@
           <t>ชอบตรงเกลี่ยง่ายแห้งไวนี่แหละค่ะ</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>ชอบตรงเกลี่ยง่ายแห้งไวนี่แหละค่ะ</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -5411,12 +4661,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>ร้านให้ของแถมมาเยอะมาก แต่ขอหัก  ดาวเพราะเป็นของที่ผลิตมาแล้ว  ปีค่ะ ซื้อตอนมีโปรก็จริง แต่ก็ยังอยากได้ของใหม่อยู่ดีค่า</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>ร้านให้ของแถมมาเยอะมากแต่ขอหักดาวเพราะเป็นของที่ผลิตมาแล้วปีค่ะซื้อตอนมีโปรก็จริงแต่ก็ยังอยากได้ของใหม่อยู่ดีค่า</t>
+          <t>ร้านให้ของแถมมาเยอะมาก แต่ขอหัก ดาวเพราะเป็นของที่ผลิตมาแล้ว ปีค่ะ ซื้อตอนมีโปรก็จริง แต่ก็ยังอยากได้ของใหม่อยู่ดีค่า</t>
         </is>
       </c>
     </row>
@@ -5447,11 +4692,6 @@
           <t>คุณภาพดี</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>คุณภาพดี</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -5480,11 +4720,6 @@
           <t>จีดส่งช้า</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>จีส่งช้า</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -5510,12 +4745,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>สินค้าใช้ได้ดี มีกลิ่นหอมอ่อนๆ แต่ราคาไม่ได้ต่างจากซื้อในโลตัส</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>สินค้าใช้ได้ดีมีกลิ่นหอมอ่อนแต่ราคาไม่ได้ต่างจากซื้อในโลตัส</t>
+          <t>สินค้าใช้ได้ดี มีกลิ่นหอมอ่อน แต่ราคาไม่ได้ต่างจากซื้อในโลตัส</t>
         </is>
       </c>
     </row>
@@ -5543,12 +4773,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>เนื้อกันแดดซึมไวไม่เเหนอะหน้า แพ็คดีส่งสินค้าไวค่ะ</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>เนื้อกันแดดซึมไวไม่เหนอะหน้าแพ็คดีส่งสินค้าไวค่ะ</t>
+          <t>เนื้อกันแดดซึมไวไม่ เหนอะหน้า แพ็คดีส่งสินค้าไวค่ะ</t>
         </is>
       </c>
     </row>
@@ -5576,12 +4801,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>สินค้าไม่ได้รับความเสียหายได้ตรงตามปกค่ะราคาไม่แพงมาก  สินค้าไม่ได้รับความเสียหายได้ตรงตามปกค่ะราคาไม่แพงมาก  สินค้าไม่ได้รับความเสียหายได้ตรงตามปกค่ะราคาไม่แพงมาก</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>สินค้าไม่ได้รับความเสียหายได้ตรงตามปกค่ะราคาไม่แพงมากสินค้าไม่ได้รับความเสียหายได้ตรงตามปกค่ะราคาไม่แพงมากสินค้าไม่ได้รับความเสียหายได้ตรงตามปกค่ะราคาไม่แพงมาก</t>
+          <t>สินค้าไม่ได้รับความเสียหายได้ตรงตามปกค่ะราคาไม่แพงมาก สินค้าไม่ได้รับความเสียหายได้ตรงตามปกค่ะราคาไม่แพงมาก สินค้าไม่ได้รับความเสียหายได้ตรงตามปกค่ะราคาไม่แพงมาก</t>
         </is>
       </c>
     </row>
@@ -5612,11 +4832,6 @@
           <t>สินค้าเก่าไปหน่อยค่ะ</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>สินค้าเก่าไปหน่อยค่ะ</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -5645,11 +4860,6 @@
           <t>ถูกต้องตรงตามปก แต่ของที่ได้มาผลิตตั้งแต่ต้นปีที่แล้ว</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>ถูกต้องตรงตามปกแต่ของที่ได้มาผลิตตั้งแต่ต้นปีที่แล้ว</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -5678,11 +4888,6 @@
           <t>ปกติจะผลิตที่ญี่ปุ่น งวดนี้ผลิตเวียดนาม จะลิงใช้ดู</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>ปกติจะผลิตที่ญี่ปุ่นงวดนี้ผลิตเวียดนามจะลิงใช้ดู</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -5708,12 +4913,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>บิโอเรครีมกันแดดแบบเจล ขนาด  มล สินค้าคุณภาพดี ราคาคุ้มค่า เสียแต่วันผลิตเก่าไปนิดตั้งแต่ จัดส่งเร็วดี</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>บิโอเรครีมกันแดดแบบเจลขนาดมลสินค้าคุณภาพดีราคาคุ้มค่าเสียแต่วันผลิตเก่าไปนิดตั้งแต่จัดส่งเร็วดี</t>
+          <t>บิโอเรครีมกันแดดแบบเจล ขนาด มล สินค้าคุณภาพดี ราคาคุ้มค่า เสียแต่วันผลิตเก่าไปนิดตั้งแต่ จัดส่งเร็วดี</t>
         </is>
       </c>
     </row>
@@ -5741,12 +4941,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>กลิ่นแรงกว่า  ขวด ที่เคยใช้ก่อนหน้า แล้วเนื้อครีมก็หนืดกว่าปกติเพราะขวดก่อนๆจะมีความเป็นน้ำมากกว่าเนื้อครีมหนืดๆแบบนี้  ขวดแรกซื้อจากช้อปไทย ขวดที่  ซื้อที่ไต้หวัน เลยไม่ค่อยมั่นใจว่าของแท้รึเปล่า</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>กลิ่นแรงกว่าขวดที่เคยใช้ก่อนหน้าแล้วเนื้อครีมก็หนืดกว่าปกติเพราะขวดก่อนจะมีความเป็นน้ำมากกว่าเนื้อครีมหนืดแบบนี้ขวดแรกซื้อจากไทยขวดที่ซื้อที่ไต้หวันเลยไม่ค่อยมั่นใจว่าของแท้รึเปล่า</t>
+          <t>กลิ่นแรงกว่า ขวด ที่เคยใช้ก่อนหน้า แล้วเนื้อครีมก็หนืดกว่าปกติเพราะขวดก่อน จะมีความเป็นน้ำมากกว่าเนื้อครีมหนืด แบบนี้ ขวดแรกซื้อจาก ไทย ขวดที่ ซื้อที่ไต้หวัน เลยไม่ค่อยมั่นใจว่าของแท้รึเปล่า</t>
         </is>
       </c>
     </row>
@@ -5774,12 +4969,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>ได้รับสินค้าตรงเวลา แพ๊คสินค้าดี สั่งร้านนี้ครั้งที่แล้วคุณภาพสินค้าดีเพราะชื่อผ่านร้านเจ้าของโดยตรง แถวได้ส่วนลดของร้านและของ  เพิ่มอีก โดยรวมคุ้มค่ากับราคา</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>ได้รับสินค้าตรงเวลาสินค้าดีสั่งร้านนี้ครั้งที่แล้วคุณภาพสินค้าดีเพราะชื่อผ่านร้านเจ้าของโดยตรงแถวได้ส่วนลดของร้านและของเพิ่มอีกโดยรวมคุ้มค่ากับราคา</t>
+          <t>ได้รับสินค้าตรงเวลา สินค้าดี สั่งร้านนี้ครั้งที่แล้วคุณภาพสินค้าดีเพราะชื่อผ่านร้านเจ้าของโดยตรง แถวได้ส่วนลดของร้านและของ เพิ่มอีก โดยรวมคุ้มค่ากับราคา</t>
         </is>
       </c>
     </row>
@@ -5807,11 +4997,6 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>นใำนฝำนฝพนฝกนฝดสฝดนฝะัตงพนฝะนฝพนพนใำนใพนฝำนวำนฝดรใดรใด่มดรมำรมำรใพรใพนใพนฝพนฝพนฝพนฝดนใพน</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
           <t>ใด</t>
         </is>
       </c>
@@ -5843,11 +5028,6 @@
           <t>จัดส่งรวดเร็วรอไม่นาน ครีมกันแดดเนื้อเจล ใช้ครั้งแรก เนื้อเหมือนกะทิเลย ยังไม่เคยใช้ ลองทดสอบดูก่อนนะครับ</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>จัดส่งรวดเร็วรอไม่นานครีมกันแดดเนื้อเจลใช้ครั้งแรกเนื้อเหมือนกะทิเลยยังไม่เคยใช้ลองทดสอบดูก่อนนะครับ</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -5873,12 +5053,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>สินค้าดี ราคาไม่แพง  จัดส่งสินค้าค่อนข้างช้า สั่งซื้อสินค้า ไป ช่วงก่อนเที่นง วันที่  ได้รับสินค้า วันที่  ช่วงก่อนเที่ยง</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>สินค้าดีราคาไม่แพงจัดส่งสินค้าค่อนข้างช้าสั่งซื้อสินค้าไปช่วงก่อนเทวันที่ได้รับสินค้าวันที่ช่วงก่อนเที่ยง</t>
+          <t>สินค้าดี ราคาไม่แพง จัดส่งสินค้าค่อนข้างช้า สั่งซื้อสินค้า ไป ช่วงก่อนเท วันที่ ได้รับสินค้า วันที่ ช่วงก่อนเที่ยง</t>
         </is>
       </c>
     </row>
@@ -5909,11 +5084,6 @@
           <t>ผลิตที่เวียดนาม ไม่รู้จะใช้ดีไหม</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>ผลิตที่เวียดนามไม่รู้จะใช้ดีไหม</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -5942,11 +5112,6 @@
           <t>เรียบร้อยดี ขนส่งไม่นาน ได้สินค้าครบ</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>เรียบร้อยดีขนส่งไม่นานได้สินค้าครบ</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -5975,11 +5140,6 @@
           <t>จัดส่งไม่ไว ไม่ช้า แต่คนส่งมาโดยไม่โทรแจ้ง แพ็คสินค้าดีไม่มีบุบสลาย ของเพิ่งผลิตใหม่ปีนี้</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>จัดส่งไม่ไวไม่ช้าแต่คนส่งมาโดยไม่โทรแจ้งแพ็คสินค้าดีไม่มีบุบสลายของเพิ่งผลิตใหม่ปีนี้</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -6005,12 +5165,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>คุณภาพปกติดีแพ็คมาค่อนข้างจะไม่เรียบร้อยเท่าไหร่อาจเกิดจากการขนส่งอยากให้แพ๊คมาให้ดีกว่านี้</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>คุณภาพปกติดีแพ็คมาค่อนข้างจะไม่เรียบร้อยเท่าไหร่อาจเกิดจากการขนส่งอยากให้มาให้ดีกว่านี้</t>
+          <t>คุณภาพปกติดีแพ็คมาค่อนข้างจะไม่เรียบร้อยเท่าไหร่อาจเกิดจากการขนส่งอยากให้ มาให้ดีกว่านี้</t>
         </is>
       </c>
     </row>
@@ -6041,11 +5196,6 @@
           <t>ราคาดีส่งเร็ว</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>ราคาดีส่งเร็ว</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -6074,11 +5224,6 @@
           <t>ก็ไม่บอกไรมาก แค่ว่า ของหมดอายุแล้วแต่พึ่งหมดได้เดือนถือว่ายังโอเค</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>ก็ไม่บอกไรมากแค่ว่าของหมดอายุแล้วแต่พึ่งหมดได้เดือนถือว่ายังโอเค</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -6107,11 +5252,6 @@
           <t>ซึมผิวไวมาก คุณภาพน่าจะดี</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>ซึมผิวไวมากคุณภาพน่าจะดี</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -6137,12 +5277,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>รอนานมากค่ะ  กว่าวันได้ ร้านมีเมสเสจแจ้งว่าของไม่พออยู่ระหว่างนำเข้า   พึ่งของใช้ทำไมเหมือนแพ้ หน้าแห้งงง แสบหน้า  ปกติใช้ สูตร   ไม่แพ้ สงสัยคงไม่ถูกกับสูตรนี้</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>รอนานมากค่ะกว่าวันได้ร้านมีเมเสแจ้งว่าของไม่พออยู่ระหว่างนำเข้าพึ่งของใช้ทำไมเหมือนแพ้หน้าแห้งแสบหน้าปกติใช้สูตรไม่แพ้สงสัยคงไม่ถูกกับสูตรนี้</t>
+          <t>รอนานมากค่ะ กว่าวันได้ ร้านมีเมสเสจแจ้งว่าของไม่พออยู่ระหว่างนำเข้า พึ่งของใช้ทำไมเหมือนแพ้ หน้าแห้งงง แสบหน้า ปกติใช้ สูตร ไม่แพ้ สงสัยคงไม่ถูกกับสูตรนี้</t>
         </is>
       </c>
     </row>
@@ -6170,12 +5305,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>สินค้าที่ส่งมามีสภาพเรียบร้อยดี ราคาช่วงโปรโมชั่นของลาซาด้า ก็คุ้มค่า</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>สินค้าที่ส่งมามีสภาพเรียบร้อยดีราคาช่วงโปรโมชั่นของลาซาก็คุ้มค่า</t>
+          <t>สินค้าที่ส่งมามีสภาพเรียบร้อยดี ราคาช่วงโปรโมชั่นของลาซา ก็คุ้มค่า</t>
         </is>
       </c>
     </row>
@@ -6203,12 +5333,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>จัดส่งไวมาก  วันถึง  ทันได้กันแดด ราคาถูกมาก ซื้อตุนไว้ก่อน  อ่านรีวิวมาว่าร้านนี้เป็น   เลยไว้ใจ  ส่วนคุณภาพไว้ว่ากัน ยังไม่เคยใช้ยี่ห้อนี้</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>จัดส่งไวมากวันถึงทันได้กันแดดราคาถูกมากซื้อตุนไว้ก่อนอ่านรีวิวมาว่าร้านนี้เป็นเลยไว้ใจส่วนคุณภาพไว้ว่ากันยังไม่เคยใช้ยี่ห้อนี้</t>
+          <t>จัดส่งไวมาก วันถึง ทันได้กันแดด ราคาถูกมาก ซื้อตุนไว้ก่อน อ่านรีวิวมาว่าร้านนี้เป็น เลยไว้ใจ ส่วนคุณภาพไว้ว่ากัน ยังไม่เคยใช้ยี่ห้อนี้</t>
         </is>
       </c>
     </row>
@@ -6239,11 +5364,6 @@
           <t>เร็วมากค่ะ ชอบ นึกว่าของจะส่งช้าแต่ไม่เลยค่ะ มาทันขวดเก่าที่ใกล้จะหมดด้วย เร็วมากจริงๆ จะมาอุดหนุนเรื่อยๆนะคะ</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>เร็วมากค่ะชอบนึกว่าของจะส่งช้าแต่ไม่เลยค่ะมาทันขวดเก่าที่ใกล้จะหมดด้วยเร็วมากจริงๆจะมาอุดหนุนเรื่อยๆนะคะ</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -6272,11 +5392,6 @@
           <t>ดีครับ</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>ดีครับ</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -6305,11 +5420,6 @@
           <t>ส่งเร็ว ราคาถูกกว่าร้านตามห้างนิดหน่อย</t>
         </is>
       </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>ส่งเร็วราคาถูกกว่าร้านตามห้างนิดหน่อย</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -6335,12 +5445,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>ส่งของช้ามาก ใข้เวลาประมาณวันได้กว่าจะได้ของ ของที่ได้ถือว่าผลิตค่อนข้างนานแล้วแต่ก็โอเคเพราะซื้อมาราคาถูกกว่าที่อื่น</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>ส่งของช้ามากเวลาประมาณวันได้กว่าจะได้ของของที่ได้ถือว่าผลิตค่อนข้างนานแล้วแต่ก็โอเคเพราะซื้อมาราคาถูกกว่าที่อื่น</t>
+          <t>ส่งของช้ามาก เวลาประมาณวันได้กว่าจะได้ของ ของที่ได้ถือว่าผลิตค่อนข้างนานแล้วแต่ก็โอเคเพราะซื้อมาราคาถูกกว่าที่อื่น</t>
         </is>
       </c>
     </row>
@@ -6371,11 +5476,6 @@
           <t>เคยใช้ยี่ห้ออยู่นี้แล้วค่ะ</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>เคยใช้ยี่ห้ออยู่นี้แล้วค่ะ</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -6404,11 +5504,6 @@
           <t>ดี</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>ดี</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -6437,11 +5532,6 @@
           <t>สั่งออนไลน์ สะดวกดี แต่งง สติ๊กเกอร์นี่คืออะไร ก่อนส่ง แกะออกให้หน่อยก็น่าจะดูดีกว่านี้ โดยรวมดี</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>สั่งออนไลน์สะดวกดีแต่งงสติ๊กเกอร์นี่คืออะไรก่อนส่งแกะออกให้หน่อยก็น่าจะดูดีกว่านี้โดยรวมดี</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -6470,11 +5560,6 @@
           <t>สั่งวันที่ วันที่ก็ได้ของแล้ว เร็วดี ถูกด้วย แต่ถุงที่ห่อครีมกันแดดขาดไม่มีผลกับสินค้า มีของแถมให้ด้วยเป็นผ้าอนามัยแต่เป็นของเก่าปีแล้ว</t>
         </is>
       </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>สั่งวันที่วันที่ก็ได้ของแล้วเร็วดีถูกด้วยแต่ถุงที่ห่อครีมกันแดดขาดไม่มีผลกับสินค้ามีของแถมให้ด้วยเป็นผ้าอนามัยแต่เป็นของเก่าปีแล้ว</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -6500,12 +5585,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>ถือว่าดีกว่าแบรนด์อื่นๆนะซึมไวดี แต่เราเคยซื่อของบีโอเรนี่แหละ คล้ายๆกันแต่เป็นรุ่นที่แพงกว่ามันดีกว่า ความเนอัหนะมันน้อยกว่าทาแล้วเป็นธรรมชาติมากกว่า</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>ถือว่าดีกว่าแบรนด์อื่นๆนะซึมไวดีแต่เราเคยซื่อของบีโอเรนี่แหละคล้ายๆกันแต่เป็นรุ่นที่แพงกว่ามันดีกว่าความนะมันน้อยกว่าทาแล้วเป็นธรรมชาติมากกว่า</t>
+          <t>ถือว่าดีกว่าแบรนด์อื่นๆนะซึมไวดี แต่เราเคยซื่อของบีโอเรนี่แหละ คล้ายๆกันแต่เป็นรุ่นที่แพงกว่ามันดีกว่า ความ นะมันน้อยกว่าทาแล้วเป็นธรรมชาติมากกว่า</t>
         </is>
       </c>
     </row>
@@ -6536,11 +5616,6 @@
           <t>แพคสินค้าไม่มีกันกระแทก น่าจะใส่ให้ด้วย</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>แพสินค้าไม่มีกันกระแทกน่าจะใส่ให้ด้วย</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -6569,11 +5644,6 @@
           <t>เคยใช้แบบซองแล้วติดใจ เลยตัดสินใจซื้อแบบขวด ขวด</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>เคยใช้แบบซองแล้วติดใจเลยตัดสินใจซื้อแบบขวดขวด</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -6599,12 +5669,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>ราคาถูกดี หักดาวเพราพส้งช้า</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>ราคาถูกดีหักดาวเพราช้า</t>
+          <t>ราคาถูกดี หักดาวเพรา ช้า</t>
         </is>
       </c>
     </row>
@@ -6632,12 +5697,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>สินค้าขนส่งไว แพคสินค้าเรียบร้อยดี ราคาของทางร้านดีกว่าซื้อในร้าน บิวตี้ชอปทั่วไป  สินค้าหมดน่าจะซื้อจากร้านเดิมอีก สะดวกดีค่ะ</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>สินค้าขนส่งไวแพสินค้าเรียบร้อยดีราคาของทางร้านดีกว่าซื้อในร้านบิทั่วไปสินค้าหมดน่าจะซื้อจากร้านเดิมอีกสะดวกดีค่ะ</t>
+          <t>สินค้าขนส่งไว แพคสินค้าเรียบร้อยดี ราคาของทางร้านดีกว่าซื้อในร้าน บิ ทั่วไป สินค้าหมดน่าจะซื้อจากร้านเดิมอีก สะดวกดีค่ะ</t>
         </is>
       </c>
     </row>
@@ -6668,11 +5728,6 @@
           <t>ได้รับสินค้าเรียบร้อยใช้เวลาจัดส่งไม่นานมาก ร้านค้าแพ็คสินค้ามาดี ต้องทดลองใช้ก่อนยังไม่รู้ว่าเป็นยังไง</t>
         </is>
       </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>ได้รับสินค้าเรียบร้อยใช้เวลาจัดส่งไม่นานมากร้านค้าแพ็คสินค้ามาดีต้องทดลองใช้ก่อนยังไม่รู้ว่าเป็นยังไง</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -6701,11 +5756,6 @@
           <t>สินค้าใช้ดี ใช้ขวดที่แล้ว</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>สินค้าใช้ดีใช้ขวดที่แล้ว</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -6734,11 +5784,6 @@
           <t>ไม่เหนอะกำลังต้องการพอดี</t>
         </is>
       </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>ไม่เหนอะกำลังต้องการพอดี</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -6767,11 +5812,6 @@
           <t>ใช้ดีค่ะ</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>ใช้ดีค่ะ</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -6800,11 +5840,6 @@
           <t>ส่งไว ใช้ดี ซื้อตอนแฟลชเซลล์ราคาดีงามค่ะ</t>
         </is>
       </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>ส่งไวใช้ดีซื้อตอนแฟลชเซลล์ราคาดีงามค่ะ</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -6830,12 +5865,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>ของแถมบอกได้เป็นโฟมล้างหน้า แต่ส่งมาเป็นสเปรย์แอลกอฮอร์ ผิดหวัง</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>ของแถมบอกได้เป็นโฟมล้างหน้าแต่ส่งมาเป็นสเปรย์แอลกอผิดหวัง</t>
+          <t>ของแถมบอกได้เป็นโฟมล้างหน้า แต่ส่งมาเป็นสเปรย์แอลกอ ผิดหวัง</t>
         </is>
       </c>
     </row>
@@ -6866,11 +5896,6 @@
           <t>แพคสินค้ามาแย่มาก ของกระจายกระแทกไปมาจนมีของเหลวซึมออกจากซอง ซองนึงเหลือผลิตภัณฑ์แค่ครึ่งเดียว และไหลเปื้อนแพคเกจของสินค้าอื่น แย่มากกกกกกกป</t>
         </is>
       </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>แพสินค้ามาแย่มากของกระจายกระแทกไปมาจนมีของเหลวซึมออกจากซองซองนึงเหลือผลิตภัณฑ์แค่ครึ่งเดียวและไหลเปื้อนแพคเกจของสินค้าอื่นแย่มาก</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -6899,11 +5924,6 @@
           <t>คุณภาพของปลอม เนื้อครีมเหนียวเหนอะหนะมากไม่เคยเจอแบบนี้</t>
         </is>
       </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>คุณภาพของปลอมเนื้อครีมเหนียวเหนอะหนะมากไม่เคยเจอแบบนี้</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -6929,12 +5949,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>แนะนำให้เลิกใช้แฟลชในการขนส่งค่ะ วันแรกกดรับเองรอรวมมาส่งกับของอีกวัน พอมาอีกวันไม่โทรหา ไม่กดกริ่ง เอาของวางไว้ที่พื้นหน้ารั้ว แล้วบอกว่าเราสั่งให้วางๆ ทั้งๆที่ไม่เคยบอกให้วาง แย่มากค่ะ</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>แนะนำให้เลิกใช้แฟลชในการขนส่งค่ะวันแรกกดรับเองรอรวมมาส่งกับของอีกวันพอมาอีกวันไม่โทรหาไม่กดกริ่งเอาของวางไว้ที่พื้นหน้ารั้วแล้วบอกว่าเราสั่งให้วางทั้งๆที่ไม่เคยบอกให้วางแย่มากค่ะ</t>
+          <t>แนะนำให้เลิกใช้แฟลชในการขนส่งค่ะ วันแรกกดรับเองรอรวมมาส่งกับของอีกวัน พอมาอีกวันไม่โทรหา ไม่กดกริ่ง เอาของวางไว้ที่พื้นหน้ารั้ว แล้วบอกว่าเราสั่งให้วาง ทั้งๆที่ไม่เคยบอกให้วาง แย่มากค่ะ</t>
         </is>
       </c>
     </row>
@@ -6965,11 +5980,6 @@
           <t>เพิ่งซื้อครั้งแรก ขอลองใช้ก่อน</t>
         </is>
       </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>เพิ่งซื้อครั้งแรกขอลองใช้ก่อน</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -6995,12 +6005,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>คุณภาพสินค้าดี แต่เสียที่การขนส่งค่ะ                                  สั่งสินค้าตั้งแต่วันที่ แต่จัดส่งให้วันที่  ของมาถึงวันที่</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>คุณภาพสินค้าดีแต่เสียที่การขนส่งค่ะสั่งสินค้าตั้งแต่วันที่แต่จัดส่งให้วันที่ของมาถึงวันที่</t>
+          <t>คุณภาพสินค้าดี แต่เสียที่การขนส่งค่ะ สั่งสินค้าตั้งแต่วันที่ แต่จัดส่งให้วันที่ ของมาถึงวันที่</t>
         </is>
       </c>
     </row>
@@ -7028,12 +6033,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>ประสิทธิภาพ ยังจะให้ให้เราได้นะน้องไปแล้วว่าเราเป้นจั้งได๋สบายดียายกุลเป้นไงบ้างงแล้วจะไปขายของ</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>ประสิทธิภาพยังจะให้ให้เราได้นะน้องไปแล้วว่าเราเป้จั้งสบายดียายกุลเป้ไงบ้างงแล้วจะไปขายของ</t>
+          <t>ประสิทธิภาพ ยังจะให้ให้เราได้นะน้องไปแล้วว่าเราเป้นจั้ง สบายดียายกุลเป้นไงบ้างงแล้วจะไปขายของ</t>
         </is>
       </c>
     </row>
@@ -7061,12 +6061,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>ไม่มีการห่อบับเบิ้มใดๆ ถ้าขนส่งทำชำรุดรุนแรงสินค้าก็คงเสียหายด้วยแน่ๆ ถ้าหากร้านค้าห่อให้สักนิดนึงคงรู้สึกประทับใจมากกว่านี้</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>ไม่มีการห่อเบิ้มใดๆถ้าขนส่งทำชำรุดรุนแรงสินค้าก็คงเสียหายด้วยแน่ๆถ้าหากร้านค้าห่อให้สักนิดนึงคงรู้สึกประทับใจมากกว่านี้</t>
+          <t>ไม่มีการห่อ เบิ้มใดๆ ถ้าขนส่งทำชำรุดรุนแรงสินค้าก็คงเสียหายด้วยแน่ๆ ถ้าหากร้านค้าห่อให้สักนิดนึงคงรู้สึกประทับใจมากกว่านี้</t>
         </is>
       </c>
     </row>
@@ -7097,11 +6092,6 @@
           <t>สินค้าดี แค่ไม่มีใบเสร็จรับเงินมาคู่กันสินค้า ส่วนใหญ่ บที่ขายทางการและใหญ่ ไม่ใช่ร้านค้าทั่วไปร้านค้าทั่วไปบางร้านมีแนบให้ด้วย จะแนบใบเสร็จที่ชำระค่าสินค้าแล้วให้ลูกค้ามาพร้อมสินค้าเสมอ</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>สินค้าดีแค่ไม่มีใบเสร็จรับเงินมาคู่กันสินค้าส่วนใหญ่ที่ขายทางการและใหญ่ไม่ใช่ร้านค้าทั่วไปร้านค้าทั่วไปบางร้านมีแนบให้ด้วยจะแนบใบเสร็จที่ชำระค่าสินค้าแล้วให้ลูกค้ามาพร้อมสินค้าเสมอ</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -7130,11 +6120,6 @@
           <t>เหมาะสำหรับทุกสภาพผิว ช่วยปกป้องจากแสงแดดสูง เหมาะสำหรับทุกสภาพผิว ไม่ทำให้รูขุมขนอุดตัน</t>
         </is>
       </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>เหมาะสำหรับทุกสภาพผิวช่วยปกป้องจากแสงแดดสูงเหมาะสำหรับทุกสภาพผิวไม่ทำให้รูขุมขนอุดตัน</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -7163,11 +6148,6 @@
           <t>ส่งช้า แต่โปรคุ้มมาก</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>ส่งช้าแต่โปรคุ้มมาก</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -7193,12 +6173,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>เพิ่งผลิตเดือนเจ็ดปีนี้ได้รับสินค้าครบถ้วนสองอันไม่ได้มีของแถมในวันโปรโปรโมชั่น  ของใส่กล่องมาโดยรวมใช้งานได้แพ็คเก็จใหม่</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>เพิ่งผลิตเดือนเจ็ดปีนี้ได้รับสินค้าครบถ้วนสองอันไม่ได้มีของแถมในวันโปรโปรโมชั่นของใส่กล่องมาโดยรวมใช้งานได้แพ็คเก็จใหม่</t>
+          <t>เพิ่งผลิตเดือนเจ็ดปีนี้ได้รับสินค้าครบถ้วนสองอันไม่ได้มีของแถมในวันโปรโปรโมชั่น ของใส่กล่องมาโดยรวมใช้งานได้แพ็คเก็จใหม่</t>
         </is>
       </c>
     </row>
@@ -7229,11 +6204,6 @@
           <t>ใช้ดีใช้มาหลายชิ้นแล้วราคาถูกมากรีบซื้อตุนไว้แต่ใช้นานกว่าจะหมดหลอดแต่ของดีจริงๆ</t>
         </is>
       </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>ใช้ดีใช้มาหลายชิ้นแล้วราคาถูกมากรีบซื้อตุนไว้แต่ใช้นานกว่าจะหมดหลอดแต่ของดีจริงๆ</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -7262,11 +6232,6 @@
           <t>คุณภาพใช้สินค้าเป็นประจำ</t>
         </is>
       </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>คุณภาพใช้สินค้าเป็นประจำ</t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -7292,12 +6257,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>ร้านส่งของไวอพ็คสินค้ามาดี แถมกันแดดแบบซองมาด้วยพึ่งรุ้เดียวนี้ครีมกันแบบผลิตที่เวียดนาม</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>ร้านส่งของไวสินค้ามาดีแถมกันแดดแบบซองมาด้วยพึ่งเดียวนี้ครีมกันแบบผลิตที่เวียดนาม</t>
+          <t>ร้านส่งของไว สินค้ามาดี แถมกันแดดแบบซองมาด้วยพึ่ง เดียวนี้ครีมกันแบบผลิตที่เวียดนาม</t>
         </is>
       </c>
     </row>
@@ -7325,12 +6285,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>เนื้อเจลซึมเร็วดีค่ะ ทาซ้ำหลายๆครั้งก็ไม่รู้สึกเหนียวเหนอะหนะ กันแดดได้ดีทั้งผิวหน้าและผิวกายค่ะ</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>เนื้อเจลซึมเร็วดีค่ะทาซ้ำหลายครั้งก็ไม่รู้สึกเหนียวเหนอะหนะกันแดดได้ดีทั้งผิวหน้าและผิวกายค่ะ</t>
+          <t>เนื้อเจลซึมเร็วดีค่ะ ทาซ้ำหลาย ครั้งก็ไม่รู้สึกเหนียวเหนอะหนะ กันแดดได้ดีทั้งผิวหน้าและผิวกายค่ะ</t>
         </is>
       </c>
     </row>
@@ -7361,11 +6316,6 @@
           <t>ส่งช้าไปนิดแต่สินค้าแพ็คดี</t>
         </is>
       </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>ส่งช้าไปนิดแต่สินค้าแพ็คดี</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -7394,11 +6344,6 @@
           <t>สินค้าคุณภาพเคยใช้งาน กล่องส่งมาแบบปรกติ ส่งของได้ไว สั่งเมื่อวาน อีกวันหนึ่งมาส่ง โทรติดต่อก่อนมาส่ง ไม่เหมือนอีกขนส่งที่โทรมาแบบไม่ให้รับแล้วมาส่งเลย คล</t>
         </is>
       </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>สินค้าคุณภาพเคยใช้งานกล่องส่งมาแบบปรกติส่งของได้ไวสั่งเมื่อวานอีกวันหนึ่งมาส่งโทรติดต่อก่อนมาส่งไม่เหมือนอีกขนส่งที่โทรมาแบบไม่ให้รับแล้วมาส่งเลยคล</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -7427,11 +6372,6 @@
           <t>คุณภาพสินค้าโดยรวมถือว่าราคา ช่วงโปรโมชั่น ถือว่าถูกมาก ใช้ประจำ รอการขนส่งสินค้า ไม่นาน</t>
         </is>
       </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>คุณภาพสินค้าโดยรวมถือว่าราคาช่วงโปรโมชั่นถือว่าถูกมากใช้ประจำรอการขนส่งสินค้าไม่นาน</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -7460,11 +6400,6 @@
           <t>ใช้แล้วไม่เหนียวเหนอะ เย็น สินค้าส่งเร็ว สั่งตอนลดราคาพอดี ดูเดียวทดลองใช้ก่อนครับถ้าดีแล้วจะซื้ออีก</t>
         </is>
       </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>ใช้แล้วไม่เหนียวเหนอะเย็นสินค้าส่งเร็วสั่งตอนลดราคาพอดีดูเดียวทดลองใช้ก่อนครับถ้าดีแล้วจะซื้ออีก</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -7493,11 +6428,6 @@
           <t>สินค้า ส่งเร็วมากกกก</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>สินค้าส่งเร็วมาก</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -7523,12 +6453,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>สั่งสินค้าครบตามที่กำหนดจะได้กระเป๋าเป็นของแถม ซึ่งตอนกดสั่ง ไม่ได้แจ้งในรับบว่าของแถมหมด ได้รับของแล้วรู้สึกเฟลมากๆๆ กดสั่งไปเยอะเพราะอยากได้กระเป๋าผ้า แต่ให้กระเป๋าอะไรมา ไม่โอเคเลย</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>สั่งสินค้าครบตามที่กำหนดจะได้กระเป๋าเป็นของแถมซึ่งตอนกดสั่งไม่ได้แจ้งในรับว่าของแถมหมดได้รับของแล้วรู้สึกมากกดสั่งไปเยอะเพราะอยากได้กระเป๋าผ้าแต่ให้กระเป๋าอะไรมาไม่โอเคเลย</t>
+          <t>สั่งสินค้าครบตามที่กำหนดจะได้กระเป๋าเป็นของแถม ซึ่งตอนกดสั่ง ไม่ได้แจ้งในรับบว่าของแถมหมด ได้รับของแล้วรู้สึก มาก กดสั่งไปเยอะเพราะอยากได้กระเป๋าผ้า แต่ให้กระเป๋าอะไรมา ไม่โอเคเลย</t>
         </is>
       </c>
     </row>
@@ -7559,11 +6484,6 @@
           <t>ส่งเร็ว ถูกกว่าห้าง</t>
         </is>
       </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>ส่งเร็วถูกกว่าห้าง</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -7592,11 +6512,6 @@
           <t>เปรียบเทียบอันใหม่กับอันเก่าให้ดูค่ะโดยรวมถือว่าโอเคจัดส่งรวดเร็วราคาไม่แพงทดลองใช้ไม่อุดตันล้างหน้าสองครั้งก็ถือว่าโอเคแล้วค่ะออกหมด</t>
         </is>
       </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>เปรียบเทียบอันใหม่กับอันเก่าให้ดูค่ะโดยรวมถือว่าโอเคจัดส่งรวดเร็วราคาไม่แพงทดลองใช้ไม่อุดตันล้างหน้าสองครั้งก็ถือว่าโอเคแล้วค่ะออกหมด</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -7622,12 +6537,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>สั่งซื้อสินค้าตอน  ได้  ที่ผลิต   นึกว่ทจะได้ของที่ผลิตในปีนี้สะอีก</t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>สั่งซื้อสินค้าตอนได้ที่ผลิตนึกจะได้ของที่ผลิตในปีนี้สะอีก</t>
+          <t>สั่งซื้อสินค้าตอน ได้ ที่ผลิต นึกว่ทจะได้ของที่ผลิตในปีนี้สะอีก</t>
         </is>
       </c>
     </row>
@@ -7658,11 +6568,6 @@
           <t>สินค้าของแท้ ราคาถูกมาก ชนิดนี้จะเป็นของเหลวไม่ใช่ครีม แต่ก็ใช้ได้ดี มีของแถมให้ด้วย จัดว่งเร็วมาก</t>
         </is>
       </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>สินค้าของแท้ราคาถูกมากชนิดนี้จะเป็นของเหลวไม่ใช่ครีมแต่ก็ใช้ได้ดีมีของแถมให้ด้วยจัดเร็วมาก</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -7691,11 +6596,6 @@
           <t>เหมาะสำหรับทุกสภาพผิว เหมาะสำหรับกิจกรรมกลางแจ้ง</t>
         </is>
       </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>เหมาะสำหรับทุกสภาพผิวเหมาะสำหรับกิจกรรมกลางแจ้ง</t>
-        </is>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -7721,12 +6621,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>ได้รับรวดเร็ว  ใช้เวลาเพียงสองวัน เคยใช้อีกสูตรนึง สีชมพู สูตรนี้จะลองใช้เป็นครั้งแรก คิดว่าน่าจะโอเค เพราะต่างกันแค่สี คิดว่าเนื้อน่าจะเหมือนกัน</t>
-        </is>
-      </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>ได้รับรวดเร็วใช้เวลาเพียงสองวันเคยใช้อีกสูตรนึงสีชมพูสูตรนี้จะลองใช้เป็นครั้งแรกคิดว่าน่าจะโอเคเพราะต่างกันแค่สีคิดว่าเนื้อน่าจะเหมือนกัน</t>
+          <t>ได้รับรวดเร็ว ใช้เวลาเพียงสองวัน เคยใช้อีกสูตรนึง สีชมพู สูตรนี้จะลองใช้เป็นครั้งแรก คิดว่าน่าจะโอเค เพราะต่างกันแค่สี คิดว่าเนื้อน่าจะเหมือนกัน</t>
         </is>
       </c>
     </row>
@@ -7757,11 +6652,6 @@
           <t>เคยใช้แต่สีฟ้า เพิ่งลองสั่งมาเป็นครั้งแรก ที่เคยใช้สำหรับสีฟ้า ทาแล้วหน้าไม่มันเนื่องจากเป็นเบสน้ำ แพ็คมาเรียบร้อย ส่งไว รุ่นนี้ผลิตในเวียดนาม</t>
         </is>
       </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>เคยใช้แต่สีฟ้าเพิ่งลองสั่งมาเป็นครั้งแรกที่เคยใช้สำหรับสีฟ้าทาแล้วหน้าไม่มันเนื่องจากเป็นเบสน้ำแพ็คมาเรียบร้อยส่งไวรุ่นนี้ผลิตในเวียดนาม</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -7787,12 +6677,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>คุณภาพดี รูปลักษณ์ภายนอกดี การใช้งานดี  คุ้มค่ากับเงินที่จ่าย สินค้าดี  จัดส่งรวดเร็ว พนักงานนำส่งสุภาพ  คุ้มค่ากับเงินที่จ่าย สินค้าดี  จัดส่งรวดเร็ว พนักงานนำส่งสุภาพ</t>
-        </is>
-      </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>คุณภาพดีรูปลักษณ์ภายนอกดีการใช้งานดีคุ้มค่ากับเงินที่จ่ายสินค้าดีจัดส่งรวดเร็วพนักงานนำส่งสุภาพคุ้มค่ากับเงินที่จ่ายสินค้าดีจัดส่งรวดเร็วพนักงานนำส่งสุภาพ</t>
+          <t>คุณภาพดี รูปลักษณ์ภายนอกดี การใช้งานดี คุ้มค่ากับเงินที่จ่าย สินค้าดี จัดส่งรวดเร็ว พนักงานนำส่งสุภาพ คุ้มค่ากับเงินที่จ่าย สินค้าดี จัดส่งรวดเร็ว พนักงานนำส่งสุภาพ</t>
         </is>
       </c>
     </row>
@@ -7820,12 +6705,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>สินค้าห่อหุ้มมาแย่างดี มั่นใจในคุณภาพทั้งของสินค้าและร้านค้า ราคาดี</t>
-        </is>
-      </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>สินค้าห่อหุ้มมาแย่ดีมั่นใจในคุณภาพทั้งของสินค้าและร้านค้าราคาดี</t>
+          <t>สินค้าห่อหุ้มมาแย่ ดี มั่นใจในคุณภาพทั้งของสินค้าและร้านค้า ราคาดี</t>
         </is>
       </c>
     </row>
@@ -7856,11 +6736,6 @@
           <t>รู้สึกเบาบนผิว ป้องกันรังสีแสงอาทิตย์ในระดับสูง ไม่ทำให้เกิดหน้าขาว ป้องกันรังสีแสงอาทิตย์ในระดับสูง ไม่ทำให้เกิดสิว รู้สึกเบาบนผิว เหมาะสำหรับใช้ทุกวัน ป้องกันรังสีแสงอาทิตย์ในระดับสูง ไม่ทำให้เกิดหน้าขาว เบาและไม่มัน เหมาะสำหรับใช้ทุกวัน</t>
         </is>
       </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>รู้สึกเบาบนผิวป้องกันรังสีแสงอาทิตย์ในระดับสูงไม่ทำให้เกิดหน้าขาวป้องกันรังสีแสงอาทิตย์ในระดับสูงไม่ทำให้เกิดสิวรู้สึกเบาบนผิวเหมาะสำหรับใช้ทุกวันป้องกันรังสีแสงอาทิตย์ในระดับสูงไม่ทำให้เกิดหน้าขาวเบาและไม่มันเหมาะสำหรับใช้ทุกวัน</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -7889,11 +6764,6 @@
           <t>ไม่ทำให้เกิดสิว ทำให้ผิวดูธรรมชาติ ปกป้องจากรังสีแสงอาทิตย์ที่ยาวนาน สูตรที่ไม่เหนียวเหนอะหนะ</t>
         </is>
       </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>ไม่ทำให้เกิดสิวทำให้ผิวดูธรรมชาติปกป้องจากรังสีแสงอาทิตย์ที่ยาวนานสูตรที่ไม่เหนียวเหนอะหนะ</t>
-        </is>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -7919,12 +6789,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>ซื้อช่วง  ได้ราคาดีมาก ๆ ร้านส่งไว ใช้ยี่ห้อเป็นประจำอยู่แล้ว เนื้อไม่หนัก เกลี่ยง่าย ไม่เป็นคราบ รู้สึกสบายผิว</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>ซื้อช่วงได้ราคาดีมากร้านส่งไวใช้ยี่ห้อเป็นประจำอยู่แล้วเนื้อไม่หนักเกลี่ยง่ายไม่เป็นคราบรู้สึกสบายผิว</t>
+          <t>ซื้อช่วง ได้ราคาดีมาก ร้านส่งไว ใช้ยี่ห้อเป็นประจำอยู่แล้ว เนื้อไม่หนัก เกลี่ยง่าย ไม่เป็นคราบ รู้สึกสบายผิว</t>
         </is>
       </c>
     </row>
@@ -7955,11 +6820,6 @@
           <t>เนื้อเจลซึมซาบเร็ว เหมาะสำหรับการใช้งานประจำวัน ให้ผลลัพธ์ที่เป็นธรรมชาติสูตรไม่เหนียวเหนอะหนะ</t>
         </is>
       </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>เนื้อเจลซึมซาบเร็วเหมาะสำหรับการใช้งานประจำวันให้ผลลัพธ์ที่เป็นธรรมชาติสูตรไม่เหนียวเหนอะหนะ</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -7985,12 +6845,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>เนื้อสัมผัสเบา เกลี่ยง่าย ไม่ทิ้งคราบระหว่างวัน สบายผิว ไมาแสบตา ใช้แล้วไม่เป็นสิว รุ่นนี้ฉลากไทยแต่</t>
-        </is>
-      </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>เนื้อสัมผัสเบาเกลี่ยง่ายไม่ทิ้งคราบระหว่างวันสบายผิวแสบตาใช้แล้วไม่เป็นสิวรุ่นนี้ฉลากไทยแต่</t>
+          <t>เนื้อสัมผัสเบา เกลี่ยง่าย ไม่ทิ้งคราบระหว่างวัน สบายผิว แสบตา ใช้แล้วไม่เป็นสิว รุ่นนี้ฉลากไทยแต่</t>
         </is>
       </c>
     </row>
@@ -8021,11 +6876,6 @@
           <t>รู้สึกเบาบนผิว ป้องกันรังสีแสงอาทิตย์ในระดับสูง ไม่อุดตันรูขุมขน ทำให้ผิวรู้สึกชุ่มชื้น ปกป้องจากรังสีแสงอาทิตย์ที่ยาวนาน</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>รู้สึกเบาบนผิวป้องกันรังสีแสงอาทิตย์ในระดับสูงไม่อุดตันรูขุมขนทำให้ผิวรู้สึกชุ่มชื้นปกป้องจากรังสีแสงอาทิตย์ที่ยาวนาน</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -8054,11 +6904,6 @@
           <t>ทำให้ผิวรู้สึกชุ่มชื้น รู้สึกเบาบนผิว สูตรเจลซึมซาบเร็ว ทำให้ผิวดูธรรมชาติ เหมาะสำหรับทุกสภาพผิว ใช้ง่ายและผสมสีได้ดี</t>
         </is>
       </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>ทำให้ผิวรู้สึกชุ่มชื้นรู้สึกเบาบนผิวสูตรเจลซึมซาบเร็วทำให้ผิวดูธรรมชาติเหมาะสำหรับทุกสภาพผิวใช้ง่ายและผสมสีได้ดี</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -8084,12 +6929,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>ได้รับสินค้าแล้ว หลอดใหญ่เด้อ   นี้เป็นการสั่งครั้งแรกยังไม่ได้ลองใช้ แต่มีความคาดหวังว่ามันจะโอเคกับเรา ครั้งแรกก็จัดหลอดใหญ่ดันเลย</t>
-        </is>
-      </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>ได้รับสินค้าแล้วหลอดใหญ่เด้อนี้เป็นการสั่งครั้งแรกยังไม่ได้ลองใช้แต่มีความคาดหวังว่ามันจะโอเคกับเราครั้งแรกก็จัดหลอดใหญ่ดันเลย</t>
+          <t>ได้รับสินค้าแล้ว หลอดใหญ่เด้อ นี้เป็นการสั่งครั้งแรกยังไม่ได้ลองใช้ แต่มีความคาดหวังว่ามันจะโอเคกับเรา ครั้งแรกก็จัดหลอดใหญ่ดันเลย</t>
         </is>
       </c>
     </row>
@@ -8120,11 +6960,6 @@
           <t>ทำให้ผิวรู้สึกชุ่มชื้น สูตรเจลซึมซาบเร็ว ทำให้ผิวดูธรรมชาติ เบาและไม่มัน เหมาะสำหรับผิวที่แพ้ง่าย ไม่ทำให้เกิดสิว ทำให้ผิวรู้สึกชุ่มชื้น</t>
         </is>
       </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>ทำให้ผิวรู้สึกชุ่มชื้นสูตรเจลซึมซาบเร็วทำให้ผิวดูธรรมชาติเบาและไม่มันเหมาะสำหรับผิวที่แพ้ง่ายไม่ทำให้เกิดสิวทำให้ผิวรู้สึกชุ่มชื้น</t>
-        </is>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -8153,11 +6988,6 @@
           <t>ได้รับสินค้าตรวตามที่สั่ง เคยใช้ครีมกันแดดสูตรนี้แบบซองมาแล้วเลยสั่งแบบขนาดใหญ่ขึ้น ครีมกันแดดซึมเร็วเหมาะสำหรับทุกสภาพผิว เบาและไม่มัน ทำให้ผิวดูธรรมชาติ เหมาะสำหรับใช้ทุกวัน ทำให้ผิวรู้สึกชุ่มชื้น</t>
         </is>
       </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>ได้รับสินค้าตามที่สั่งเคยใช้ครีมกันแดดสูตรนี้แบบซองมาแล้วเลยสั่งแบบขนาดใหญ่ขึ้นครีมกันแดดซึมเร็วเหมาะสำหรับทุกสภาพผิวเบาและไม่มันทำให้ผิวดูธรรมชาติเหมาะสำหรับใช้ทุกวันทำให้ผิวรู้สึกชุ่มชื้น</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -8186,11 +7016,6 @@
           <t>ป้องกันรังสีแสงอาทิตย์ในระดับสูง ป้องกันรังสีแสงอาทิตย์ในระดับสูง ป้องกันรังสีแสงอาทิตย์ในระดับสูง ป้องกันรังสีแสงอาทิตย์ในระดับสูง ป้องกันรังสีแสงอาทิตย์ในระดับสูง</t>
         </is>
       </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>ป้องกันรังสีแสงอาทิตย์ในระดับสูงป้องกันรังสีแสงอาทิตย์ในระดับสูงป้องกันรังสีแสงอาทิตย์ในระดับสูงป้องกันรังสีแสงอาทิตย์ในระดับสูงป้องกันรังสีแสงอาทิตย์ในระดับสูง</t>
-        </is>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -8216,12 +7041,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>ซื้อมาใช้หลายครั้ง ดีจริง ราคาประหยัดกับึนงบน้อย ทา  ช้อนชาตามคำแนะนำ กันดำได้จริงหน้าใสขึ้น ทาแล้วหน้าจะสว่างขึ้นหนึ่งระดับ</t>
-        </is>
-      </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>ซื้อมาใช้หลายครั้งดีจริงราคาประหยัดกับน้อยทาช้อนชาตามคำแนะนำกันดำได้จริงหน้าใสขึ้นทาแล้วหน้าจะสว่างขึ้นหนึ่งระดับ</t>
+          <t>ซื้อมาใช้หลายครั้ง ดีจริง ราคาประหยัดกับ น้อย ทา ช้อนชาตามคำแนะนำ กันดำได้จริงหน้าใสขึ้น ทาแล้วหน้าจะสว่างขึ้นหนึ่งระดับ</t>
         </is>
       </c>
     </row>
@@ -8252,11 +7072,6 @@
           <t>เป็นกันแดดที่ใช้ดีมาก ราคาถูกมาก ชอบมาก ของดีมีคุณภาพ จัดส่งค่อนข้างเร็ว แพคของดีมาก ร้านนี้ของแท้แน่นอน</t>
         </is>
       </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>เป็นกันแดดที่ใช้ดีมากราคาถูกมากชอบมากของดีมีคุณภาพจัดส่งค่อนข้างเร็วแพของดีมากร้านนี้ของแท้แน่นอน</t>
-        </is>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -8282,12 +7097,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>คุณภาพ  ดี  เนื้อสัมผัส  ครีมเหลว  ประสิทธิภาพ  ดี  ได้รับสินค้ารวดเร็ววัน แพ็คสินค้ามาไม่มีเสียหาย สินค้าครบถ้วน สั่งของ รับประกันได้ว่าเป็นแท้แน่นอน</t>
-        </is>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>คุณภาพดีเนื้อสัมผัสครีมเหลวประสิทธิภาพดีได้รับสินค้ารวดเร็ววันแพ็คสินค้ามาไม่มีเสียหายสินค้าครบถ้วนสั่งของรับประกันได้ว่าเป็นแท้แน่นอน</t>
+          <t>คุณภาพ ดี เนื้อสัมผัส ครีมเหลว ประสิทธิภาพ ดี ได้รับสินค้ารวดเร็ววัน แพ็คสินค้ามาไม่มีเสียหาย สินค้าครบถ้วน สั่งของ รับประกันได้ว่าเป็นแท้แน่นอน</t>
         </is>
       </c>
     </row>
@@ -8318,11 +7128,6 @@
           <t>ได้รับสินค้าแล้ว คุ้มค่าคุ้มราคาการใช้งาน ราคาโดนใจมาก ร้านจัดส่งรวดเร็ว ขนส่งส่งรวดเร็ว ราคาดี ครบถ้วน ถูกต้องตามสั่งดีมาก สินค้าใช้งานได้ แพ็คสินค้าได้แน่นหนาดี</t>
         </is>
       </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>ได้รับสินค้าแล้วคุ้มค่าคุ้มราคาการใช้งานราคาโดนใจมากร้านจัดส่งรวดเร็วขนส่งส่งรวดเร็วราคาดีครบถ้วนถูกต้องตามสั่งดีมากสินค้าใช้งานได้แพ็คสินค้าได้แน่นหนาดี</t>
-        </is>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -8351,11 +7156,6 @@
           <t>ไม่ทำให้เกิดสิว ทำให้ผิวดูธรรมชาติ เบาและไม่มัน ป้องกันรังสีแสงอาทิตย์ในระดับสูง สูตรที่ไม่เหนียวเหนอะหนะ ช่วยให้เมคอัพเนื้อเนียน เหมาะสำหรับใช้ทุกวัน ป้องกันรังสีแสงอาทิตย์ในระดับสูง ทำให้ผิวรู้สึกชุ่มชื้น</t>
         </is>
       </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>ไม่ทำให้เกิดสิวทำให้ผิวดูธรรมชาติเบาและไม่มันป้องกันรังสีแสงอาทิตย์ในระดับสูงสูตรที่ไม่เหนียวเหนอะหนะช่วยให้เมคอัพเนื้อเนียนเหมาะสำหรับใช้ทุกวันป้องกันรังสีแสงอาทิตย์ในระดับสูงทำให้ผิวรู้สึกชุ่มชื้น</t>
-        </is>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -8384,11 +7184,6 @@
           <t>รู้สึกเบาบนผิว เหมาะสำหรับการใช้งานประจำวัน การป้องกันแสงแดดที่ยาวนาน เนื้อเจลซึมซาบเร็ว</t>
         </is>
       </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>รู้สึกเบาบนผิวเหมาะสำหรับการใช้งานประจำวันการป้องกันแสงแดดที่ยาวนานเนื้อเจลซึมซาบเร็ว</t>
-        </is>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -8417,11 +7212,6 @@
           <t>สูตรที่ไม่เหนียวเหนอะหนะ ไม่ทำให้เกิดหน้าขาว ใช้ง่ายและผสมสีได้ดี ทำให้ผิวรู้สึกชุ่มชื้น</t>
         </is>
       </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>สูตรที่ไม่เหนียวเหนอะหนะไม่ทำให้เกิดหน้าขาวใช้ง่ายและผสมสีได้ดีทำให้ผิวรู้สึกชุ่มชื้น</t>
-        </is>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -8450,11 +7240,6 @@
           <t>สูตรเจลซึมซาบเร็ว เหมาะสำหรับผิวที่แพ้ง่าย ไม่ทำให้เกิดสิว เหมาะสำหรับใช้ทุกวัน ไม่อุดตันรูขุมขน ใช้ง่ายและผสมสีได้ดี</t>
         </is>
       </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>สูตรเจลซึมซาบเร็วเหมาะสำหรับผิวที่แพ้ง่ายไม่ทำให้เกิดสิวเหมาะสำหรับใช้ทุกวันไม่อุดตันรูขุมขนใช้ง่ายและผสมสีได้ดี</t>
-        </is>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -8483,11 +7268,6 @@
           <t>สูตรที่ไม่เหนียวเหนอะหนะ รู้สึกเบาบนผิว ใช้ง่ายและผสมสีได้ดี ไม่ทำให้เกิดหน้าขาว ปกป้องจากรังสีแสงอาทิตย์ที่ยาวนาน</t>
         </is>
       </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>สูตรที่ไม่เหนียวเหนอะหนะรู้สึกเบาบนผิวใช้ง่ายและผสมสีได้ดีไม่ทำให้เกิดหน้าขาวปกป้องจากรังสีแสงอาทิตย์ที่ยาวนาน</t>
-        </is>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -8516,11 +7296,6 @@
           <t>ส่งเร็วมากกกก สินค้าคุณภาพดีมากเลย ส่งเร็วมากกกก สินค้าคุณภาพดีมาก ส่งเร็วมากกกก สินค้าคุณภาพดี ซึมเร็ว คุ้มค่ามากที่สุด ถูกและดีมาก แพ็คมาดีมาก</t>
         </is>
       </c>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>ส่งเร็วมากสินค้าคุณภาพดีมากเลยส่งเร็วมากสินค้าคุณภาพดีมากส่งเร็วมากสินค้าคุณภาพดีซึมเร็วคุ้มค่ามากที่สุดถูกและดีมากแพ็คมาดีมาก</t>
-        </is>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -8546,12 +7321,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>ใช้ดีมาก ซื้อประจำ ทางร้านส่งไว แพคดีมากค่ะ มีบับเบิ้ล สินค้าถูกต้องตามที่สั่ง ขนาดใหญ่ คุ้มค่ะ ใช้ได้นาน</t>
-        </is>
-      </c>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>ใช้ดีมากซื้อประจำทางร้านส่งไวแพคดีมากค่ะมีสินค้าถูกต้องตามที่สั่งขนาดใหญ่คุ้มค่ะใช้ได้นาน</t>
+          <t>ใช้ดีมาก ซื้อประจำ ทางร้านส่งไว แพคดีมากค่ะ มี สินค้าถูกต้องตามที่สั่ง ขนาดใหญ่ คุ้มค่ะ ใช้ได้นาน</t>
         </is>
       </c>
     </row>
@@ -8582,11 +7352,6 @@
           <t>ไม่ทำให้เกิดหน้าขาว ทำให้ผิวดูธรรมชาติ เหมาะสำหรับผิวที่แพ้ง่าย ป้องกันรังสีแสงอาทิตย์ในระดับสูง เหมาะสำหรับทุกสภาพผิว ปกป้องจากรังสีแสงอาทิตย์ที่ยาวนาน สินค้าเป็นของแท้</t>
         </is>
       </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>ไม่ทำให้เกิดหน้าขาวทำให้ผิวดูธรรมชาติเหมาะสำหรับผิวที่แพ้ง่ายป้องกันรังสีแสงอาทิตย์ในระดับสูงเหมาะสำหรับทุกสภาพผิวปกป้องจากรังสีแสงอาทิตย์ที่ยาวนานสินค้าเป็นของแท้</t>
-        </is>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -8615,11 +7380,6 @@
           <t>ไม่ทำให้เกิดหน้าขาว ไม่อุดตันรูขุมขน ป้องกันรังสีแสงอาทิตย์ในระดับสูง รู้สึกเบาบนผิว เหมาะสำหรับใช้ทุกวัน สินค้าของแท้</t>
         </is>
       </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>ไม่ทำให้เกิดหน้าขาวไม่อุดตันรูขุมขนป้องกันรังสีแสงอาทิตย์ในระดับสูงรู้สึกเบาบนผิวเหมาะสำหรับใช้ทุกวันสินค้าของแท้</t>
-        </is>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -8648,11 +7408,6 @@
           <t>เหมาะสำหรับใช้ทุกวัน เหมาะสำหรับทุกสภาพผิว ปกป้องจากรังสีแสงอาทิตย์ที่ยาวนาน ป้องกันรังสีแสงอาทิตย์ในระดับสูง รู้สึกเบาบนผิว สูตรที่ไม่เหนียวเหนอะหนะ เหมาะสำหรับผิวที่แพ้ง่าย ทำให้ผิวดูธรรมชาติ เหมาะสำหรับผิวที่แพ้ง่าย รู้สึกเบาบนผิว เหมาะสำหรับผิวที่แพ้ง่าย รู้สึกเบาบนผิว ปกป้องจากรังสีแสงอาทิตย์ที่ยาวนาน ป้องกันรังสีแสงอาทิตย์ในระดับสูง สูตรที่ไม่เหนียวเหนอะหนะ รู้สึกเบาบนผิว สูตรที่ไม่เหนียวเหนอะหนะ ปกป้องจากรังสีแสงอาทิตย์ที่ยาวนาน ป้องกันรังสีแสงอาทิตย์ในระดับสูง เหมาะสำหรับทุกสภาพผิว ปกป้องจากรังสีแสงอาทิตย์ที่ยาวนาน เหมาะสำหรับใช้ทุกวัน เหมาะสำหรับทุกสภาพผิว ป้องกันรังสีแสงอาทิตย์ในระดับสูง ปกป้องจากรังสีแสงอาทิตย์ที่ยาวนาน</t>
         </is>
       </c>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>เหมาะสำหรับใช้ทุกวันเหมาะสำหรับทุกสภาพผิวปกป้องจากรังสีแสงอาทิตย์ที่ยาวนานป้องกันรังสีแสงอาทิตย์ในระดับสูงรู้สึกเบาบนผิวสูตรที่ไม่เหนียวเหนอะหนะเหมาะสำหรับผิวที่แพ้ง่ายทำให้ผิวดูธรรมชาติเหมาะสำหรับผิวที่แพ้ง่ายรู้สึกเบาบนผิวเหมาะสำหรับผิวที่แพ้ง่ายรู้สึกเบาบนผิวปกป้องจากรังสีแสงอาทิตย์ที่ยาวนานป้องกันรังสีแสงอาทิตย์ในระดับสูงสูตรที่ไม่เหนียวเหนอะหนะรู้สึกเบาบนผิวสูตรที่ไม่เหนียวเหนอะหนะปกป้องจากรังสีแสงอาทิตย์ที่ยาวนานป้องกันรังสีแสงอาทิตย์ในระดับสูงเหมาะสำหรับทุกสภาพผิวปกป้องจากรังสีแสงอาทิตย์ที่ยาวนานเหมาะสำหรับใช้ทุกวันเหมาะสำหรับทุกสภาพผิวป้องกันรังสีแสงอาทิตย์ในระดับสูงปกป้องจากรังสีแสงอาทิตย์ที่ยาวนาน</t>
-        </is>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -8678,12 +7433,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>คุณภาพ  ดี  เนื้อสัมผัส  เบา  ประสิทธิภาพ  ดี ใช้ดีอยู่แล้ว ยี่ห้อนี้ ใช้มานานหลายปีดีดัก อิอิ ใช้ได้นานนะ ขวดเท่านี้ ดีเลยยย</t>
-        </is>
-      </c>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t>คุณภาพดีเนื้อสัมผัสเบาประสิทธิภาพดีใช้ดีอยู่แล้วยี่ห้อนี้ใช้มานานหลายปีดีดักอิอิใช้ได้นานนะขวดเท่านี้ดีเลย</t>
+          <t>คุณภาพ ดี เนื้อสัมผัส เบา ประสิทธิภาพ ดี ใช้ดีอยู่แล้ว ยี่ห้อนี้ ใช้มานานหลายปีดีดัก อิอิ ใช้ได้นานนะ ขวดเท่านี้ ดีเลยยย</t>
         </is>
       </c>
     </row>
@@ -8711,12 +7461,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>คุณภาพ  ไม่เหนียว  เนื้อสัมผัส  ละเอียดอ่อน ซึมเร็ว  ประสิทธิภาพ  ป้องกัน แสงแดดได้ดี ได้รับสินค้าเรียบร้อยแล้วค่ะ สินค้าตรงปก จัดส่งไวมากๆค่ะ</t>
-        </is>
-      </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>คุณภาพไม่เหนียวเนื้อสัมผัสละเอียดอ่อนซึมเร็วประสิทธิภาพป้องกันแสงแดดได้ดีได้รับสินค้าเรียบร้อยแล้วค่ะสินค้าตรงปกจัดส่งไวมากค่ะ</t>
+          <t>คุณภาพ ไม่เหนียว เนื้อสัมผัส ละเอียดอ่อน ซึมเร็ว ประสิทธิภาพ ป้องกัน แสงแดดได้ดี ได้รับสินค้าเรียบร้อยแล้วค่ะ สินค้าตรงปก จัดส่งไวมาก ค่ะ</t>
         </is>
       </c>
     </row>
@@ -8744,12 +7489,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>ป้องกันรังสีแสงอาทิตย์ในระดับสูง ประเทศไทย ใช้เครื่องหมาย มอกเป็นตัวแทนของเครื่องหมายมาตรฐาน ที่ติดอยู่บนผลิตภัณฑ์ที่ผ่านการตรวจสอบแล้วว่ามีคุณภาพ ได้มาตรฐานตามข้อกำหนดซึ่งมีอยู่  ประเภท คือ</t>
-        </is>
-      </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>ป้องกันรังสีแสงอาทิตย์ในระดับสูงประเทศไทยใช้เครื่องหมายมอเป็นตัวแทนของเครื่องหมายมาตรฐานที่ติดอยู่บนผลิตภัณฑ์ที่ผ่านการตรวจสอบแล้วว่ามีคุณภาพได้มาตรฐานตามข้อกำหนดซึ่งมีอยู่ประเภทคือ</t>
+          <t>ป้องกันรังสีแสงอาทิตย์ในระดับสูง ประเทศไทย ใช้เครื่องหมาย มอกเป็นตัวแทนของเครื่องหมายมาตรฐาน ที่ติดอยู่บนผลิตภัณฑ์ที่ผ่านการตรวจสอบแล้วว่ามีคุณภาพ ได้มาตรฐานตามข้อกำหนดซึ่งมีอยู่ ประเภท คือ</t>
         </is>
       </c>
     </row>
@@ -8780,11 +7520,6 @@
           <t>สูตรเจลซึมซาบเร็ว ทำให้ผิวรู้สึกชุ่มชื้น รู้สึกเบาบนผิว ป้องกันรังสีแสงอาทิตย์ในระดับสูง ไม่อุดตันรูขุมขน เหมาะสำหรับใช้ทุกวัน เหมาะสำหรับทุกสภาพผิว ใช้ประจำต่อเนื่องรอบนี้หน้าตาขวดเปลี่ยนไปแต่รายละเอียดเหมือนเดิม</t>
         </is>
       </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>สูตรเจลซึมซาบเร็วทำให้ผิวรู้สึกชุ่มชื้นรู้สึกเบาบนผิวป้องกันรังสีแสงอาทิตย์ในระดับสูงไม่อุดตันรูขุมขนเหมาะสำหรับใช้ทุกวันเหมาะสำหรับทุกสภาพผิวใช้ประจำต่อเนื่องรอบนี้หน้าตาขวดเปลี่ยนไปแต่รายละเอียดเหมือนเดิม</t>
-        </is>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -8813,11 +7548,6 @@
           <t>ไม่ทิ้งคราบขาว การป้องกันแสงแดดที่ยาวนาน ให้ฐานที่เรียบเนียนสำหรับการแต่งหน้า สูตรไม่เหนียวเหนอะหนะ ไม่อุดตันรูขุมขน ให้การปกป้องแสงแดดในระดับสูง เนื้อเจลซึมซาบเร็ว</t>
         </is>
       </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>ไม่ทิ้งคราบขาวการป้องกันแสงแดดที่ยาวนานให้ฐานที่เรียบเนียนสำหรับการแต่งหน้าสูตรไม่เหนียวเหนอะหนะไม่อุดตันรูขุมขนให้การปกป้องแสงแดดในระดับสูงเนื้อเจลซึมซาบเร็ว</t>
-        </is>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -8846,11 +7576,6 @@
           <t>กันน้ำไม่ทิ้งคราบขาว ให้การปกป้องแสงแดดในระดับสูง เหมาะสำหรับการใช้งานประจำวัน น้ำหนักเบาและไม่มันเยิ้ม ง่ายต่อการทาและผสม</t>
         </is>
       </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>กันน้ำไม่ทิ้งคราบขาวให้การปกป้องแสงแดดในระดับสูงเหมาะสำหรับการใช้งานประจำวันน้ำหนักเบาและไม่มันเยิ้มง่ายต่อการทาและผสม</t>
-        </is>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -8879,11 +7604,6 @@
           <t>ทำให้ผิวรู้สึกชุ่มชื้น ง่ายต่อการทาและผสม เหมาะสำหรับผิวแพ้ง่าย ไม่ทิ้งคราบขาว เหมาะสำหรับทุกสภาพผิว เนื้อเจลซึมซาบเร็ว</t>
         </is>
       </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>ทำให้ผิวรู้สึกชุ่มชื้นง่ายต่อการทาและผสมเหมาะสำหรับผิวแพ้ง่ายไม่ทิ้งคราบขาวเหมาะสำหรับทุกสภาพผิวเนื้อเจลซึมซาบเร็ว</t>
-        </is>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -8912,11 +7632,6 @@
           <t>น้ำหนักเบาและไม่มันเยิ้ม การป้องกันแสงแดดที่ยาวนาน น้ำหนักเบาและไม่มันเยิ้ม ให้ฐานที่เรียบเนียนสำหรับการแต่งหน้า</t>
         </is>
       </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>น้ำหนักเบาและไม่มันเยิ้มการป้องกันแสงแดดที่ยาวนานน้ำหนักเบาและไม่มันเยิ้มให้ฐานที่เรียบเนียนสำหรับการแต่งหน้า</t>
-        </is>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -8945,11 +7660,6 @@
           <t>การป้องกันแสงแดดที่ยาวนาน เหมาะสำหรับทุกสภาพผิว เหมาะสำหรับผิวแพ้ง่าย เหมาะสำหรับการใช้งานประจำวัน การป้องกันแสงแดดที่ยาวนาน</t>
         </is>
       </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>การป้องกันแสงแดดที่ยาวนานเหมาะสำหรับทุกสภาพผิวเหมาะสำหรับผิวแพ้ง่ายเหมาะสำหรับการใช้งานประจำวันการป้องกันแสงแดดที่ยาวนาน</t>
-        </is>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -8975,12 +7685,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>สินค้าจัดส่งครบถ้วนตรงตามที่สั่งแพ็คสินค้ามาได้ดีมากไม่มีเสียหายใช้เวลาในการจัดส่งไม่นานตรงตามที่นัหมาย</t>
-        </is>
-      </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>สินค้าจัดส่งครบถ้วนตรงตามที่สั่งแพ็คสินค้ามาได้ดีมากไม่มีเสียหายใช้เวลาในการจัดส่งไม่นานตรงตามที่มาย</t>
+          <t>สินค้าจัดส่งครบถ้วนตรงตามที่สั่งแพ็คสินค้ามาได้ดีมากไม่มีเสียหายใช้เวลาในการจัดส่งไม่นานตรงตามที่ มาย</t>
         </is>
       </c>
     </row>
@@ -9011,11 +7716,6 @@
           <t>เหมาะสำหรับทุกสภาพผิว การป้องกันแสงแดดที่ยาวนาน ให้การปกป้องแสงแดดในระดับสูง ให้ฐานที่เรียบเนียนสำหรับการแต่งหน้า</t>
         </is>
       </c>
-      <c r="G260" t="inlineStr">
-        <is>
-          <t>เหมาะสำหรับทุกสภาพผิวการป้องกันแสงแดดที่ยาวนานให้การปกป้องแสงแดดในระดับสูงให้ฐานที่เรียบเนียนสำหรับการแต่งหน้า</t>
-        </is>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -9044,11 +7744,6 @@
           <t>คุณภาพทำให้ผิวรู้สึกชุ่มชื้น เหมาะสำหรับทุกสภาพผิว ไม่ทำให้เกิดสิว สูตรไม่เหนียวเหนอะหนะ ไม่อุดตันรูขุมขน</t>
         </is>
       </c>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t>คุณภาพทำให้ผิวรู้สึกชุ่มชื้นเหมาะสำหรับทุกสภาพผิวไม่ทำให้เกิดสิวสูตรไม่เหนียวเหนอะหนะไม่อุดตันรูขุมขน</t>
-        </is>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -9074,12 +7769,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>คุณภาพ  ดี  เนื้อสัมผัส  บางเบาใช้งานง่สยเหมาะสำหรับผิวแพ้ง่าย รู้สึกเบาบนผิว การป้องกันแสงแดดที่ยาวนาน ให้ฐานที่เรียบเนียนสำหรับการแต่งหน้า</t>
-        </is>
-      </c>
-      <c r="G262" t="inlineStr">
-        <is>
-          <t>คุณภาพดีเนื้อสัมผัสบางเบาใช้งานเหมาะสำหรับผิวแพ้ง่ายรู้สึกเบาบนผิวการป้องกันแสงแดดที่ยาวนานให้ฐานที่เรียบเนียนสำหรับการแต่งหน้า</t>
+          <t>คุณภาพ ดี เนื้อสัมผัส บางเบาใช้งาน เหมาะสำหรับผิวแพ้ง่าย รู้สึกเบาบนผิว การป้องกันแสงแดดที่ยาวนาน ให้ฐานที่เรียบเนียนสำหรับการแต่งหน้า</t>
         </is>
       </c>
     </row>
@@ -9107,12 +7797,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>ประสิทธิภาพ  ให้การปกป้องแสงแดดในระดับสูง เหมาะสำหรับผิวแพ้ง่าย เนื้อเจลซึมซาบเร็ว ง่ายต่อการทาและผสม ให้ฐานที่เรียบเนียนสำหรับการแต่งหน้า</t>
-        </is>
-      </c>
-      <c r="G263" t="inlineStr">
-        <is>
-          <t>ประสิทธิภาพให้การปกป้องแสงแดดในระดับสูงเหมาะสำหรับผิวแพ้ง่ายเนื้อเจลซึมซาบเร็วง่ายต่อการทาและผสมให้ฐานที่เรียบเนียนสำหรับการแต่งหน้า</t>
+          <t>ประสิทธิภาพ ให้การปกป้องแสงแดดในระดับสูง เหมาะสำหรับผิวแพ้ง่าย เนื้อเจลซึมซาบเร็ว ง่ายต่อการทาและผสม ให้ฐานที่เรียบเนียนสำหรับการแต่งหน้า</t>
         </is>
       </c>
     </row>
@@ -9143,11 +7828,6 @@
           <t>ให้การปกป้องแสงแดดในระดับสูง ให้การปกป้องแสงแดดในระดับสูง ให้การปกป้องแสงแดดในระดับสูง ให้การปกป้องแสงแดดในระดับสูง ให้การปกป้องแสงแดดในระดับสูง ให้การปกป้องแสงแดดในระดับสูง</t>
         </is>
       </c>
-      <c r="G264" t="inlineStr">
-        <is>
-          <t>ให้การปกป้องแสงแดดในระดับสูงให้การปกป้องแสงแดดในระดับสูงให้การปกป้องแสงแดดในระดับสูงให้การปกป้องแสงแดดในระดับสูงให้การปกป้องแสงแดดในระดับสูงให้การปกป้องแสงแดดในระดับสูง</t>
-        </is>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -9176,11 +7856,6 @@
           <t>น้ำหนักเบาและไม่มันเยิ้ม สูตรไม่เหนียวเหนอะหนะ ไม่ทำให้เกิดสิว ไม่ทำให้เกิดสิว ไม่ทำให้เกิดสิว สูตรไม่เหนียวเหนอะหนะ</t>
         </is>
       </c>
-      <c r="G265" t="inlineStr">
-        <is>
-          <t>น้ำหนักเบาและไม่มันเยิ้มสูตรไม่เหนียวเหนอะหนะไม่ทำให้เกิดสิวไม่ทำให้เกิดสิวไม่ทำให้เกิดสิวสูตรไม่เหนียวเหนอะหนะ</t>
-        </is>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -9209,11 +7884,6 @@
           <t>ทำให้ผิวรู้สึกชุ่มชื้น ให้การปกป้องแสงแดดในระดับสูง สูตรไม่เหนียวเหนอะหนะ ให้การปกป้องแสงแดดในระดับสูง</t>
         </is>
       </c>
-      <c r="G266" t="inlineStr">
-        <is>
-          <t>ทำให้ผิวรู้สึกชุ่มชื้นให้การปกป้องแสงแดดในระดับสูงสูตรไม่เหนียวเหนอะหนะให้การปกป้องแสงแดดในระดับสูง</t>
-        </is>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -9242,11 +7912,6 @@
           <t>ให้การปกป้องแสงแดดในระดับสูง ให้ผลลัพธ์ที่เป็นธรรมชาติ สูตรไม่เหนียวเหนอะหนะ ไม่ทำให้เกิดสิว</t>
         </is>
       </c>
-      <c r="G267" t="inlineStr">
-        <is>
-          <t>ให้การปกป้องแสงแดดในระดับสูงให้ผลลัพธ์ที่เป็นธรรมชาติสูตรไม่เหนียวเหนอะหนะไม่ทำให้เกิดสิว</t>
-        </is>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -9272,12 +7937,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>คุณภาพ  ทำให้ผิวรู้สึกชุ่มชื้น   เนื้อสัมผัส  สูตรที่ไม่เหนียวเหนอะหนะ   ประสิทธิภาพ  เหมาะสำหรับใช้ทุกวัน ปกป้องจากรังสีแสงอาทิตย์ที่ยาวนาน</t>
-        </is>
-      </c>
-      <c r="G268" t="inlineStr">
-        <is>
-          <t>คุณภาพทำให้ผิวรู้สึกชุ่มชื้นเนื้อสัมผัสสูตรที่ไม่เหนียวเหนอะหนะประสิทธิภาพเหมาะสำหรับใช้ทุกวันปกป้องจากรังสีแสงอาทิตย์ที่ยาวนาน</t>
+          <t>คุณภาพ ทำให้ผิวรู้สึกชุ่มชื้น เนื้อสัมผัส สูตรที่ไม่เหนียวเหนอะหนะ ประสิทธิภาพ เหมาะสำหรับใช้ทุกวัน ปกป้องจากรังสีแสงอาทิตย์ที่ยาวนาน</t>
         </is>
       </c>
     </row>
@@ -9308,11 +7968,6 @@
           <t>ได้รับสินค้าในสภาพครบถ้วนสมบูรณ์ไม่มีความเสียหายแต่อย่างใดๆเลยค่ะ จัดส่งได้อย่างรวดเร็ว สินค้าตรงปกค่ะ</t>
         </is>
       </c>
-      <c r="G269" t="inlineStr">
-        <is>
-          <t>ได้รับสินค้าในสภาพครบถ้วนสมบูรณ์ไม่มีความเสียหายแต่อย่างใดๆเลยค่ะจัดส่งได้อย่างรวดเร็วสินค้าตรงปกค่ะ</t>
-        </is>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -9341,11 +7996,6 @@
           <t>ป้องกันรังสีแสงอาทิตย์ในระดับสูง ไม่อุดตันรูขุมขน ไม่ทำให้เกิดสิว เหมาะสำหรับทุกสภาพผิว รู้สึกเบาบนผิว ใช้ง่ายและผสมสีได้ดี</t>
         </is>
       </c>
-      <c r="G270" t="inlineStr">
-        <is>
-          <t>ป้องกันรังสีแสงอาทิตย์ในระดับสูงไม่อุดตันรูขุมขนไม่ทำให้เกิดสิวเหมาะสำหรับทุกสภาพผิวรู้สึกเบาบนผิวใช้ง่ายและผสมสีได้ดี</t>
-        </is>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -9374,11 +8024,6 @@
           <t>ไม่ค่อยชอบเท่าไหร</t>
         </is>
       </c>
-      <c r="G271" t="inlineStr">
-        <is>
-          <t>ไม่ค่อยชอบเท่าไห</t>
-        </is>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -9407,11 +8052,6 @@
           <t>โอเคดีค่ะ แต่กลิ่นแอลกอฮอล์แรงไปหน่อยสำหรับเรา แล้วก็เกลี่ยยากนิดนึง แต่พอเซตตัวก็ให้ผิวที่สวยค่ะ แล้วก็ไม่แสบตาด้วย</t>
         </is>
       </c>
-      <c r="G272" t="inlineStr">
-        <is>
-          <t>โอเคดีค่ะแต่กลิ่นแอลกอฮอล์แรงไปหน่อยสำหรับเราแล้วก็เกลี่ยยากนิดนึงแต่พอเซตตัวก็ให้ผิวที่สวยค่ะแล้วก็ไม่แสบตาด้วย</t>
-        </is>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -9437,12 +8077,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>โอเคอยู่นะคะ แต่รู้สึกส่าจะเป็รคราบเวลาใส่แมส</t>
-        </is>
-      </c>
-      <c r="G273" t="inlineStr">
-        <is>
-          <t>โอเคอยู่นะคะแต่รู้สึกส่าจะคราบเวลาใส่แมส</t>
+          <t>โอเคอยู่นะคะ แต่รู้สึกส่าจะ คราบเวลาใส่แมส</t>
         </is>
       </c>
     </row>
@@ -9473,11 +8108,6 @@
           <t>บิโอเร่กันแดดสีฟ้าเจลยังไม่เคยราคาคุ้มได้ปริมาณเยอะถ้าดีซื้อต่อแน่นอนต้องลองก่อน</t>
         </is>
       </c>
-      <c r="G274" t="inlineStr">
-        <is>
-          <t>บิโอเร่กันแดดสีฟ้าเจลยังไม่เคยราคาคุ้มได้ปริมาณเยอะถ้าดีซื้อต่อแน่นอนต้องลองก่อน</t>
-        </is>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -9506,11 +8136,6 @@
           <t>คุณภาพแพ็คของดีสินค้าคุณภาพดีมากค่ะ</t>
         </is>
       </c>
-      <c r="G275" t="inlineStr">
-        <is>
-          <t>คุณภาพแพ็คของดีสินค้าคุณภาพดีมากค่ะ</t>
-        </is>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -9539,11 +8164,6 @@
           <t>กันแดดได้ดี ซึบซาบเร็ว ไม่เหนียว แต่กลิ่นแอลกอฮอล์ชัดไปหน่อย ใช้ส่วนลดมาส่งฟรีถึงที่ ราคาคุ้มค่ากว่าไปซื้อที่ห้าง</t>
         </is>
       </c>
-      <c r="G276" t="inlineStr">
-        <is>
-          <t>กันแดดได้ดีซาเร็วไม่เหนียวแต่กลิ่นแอลกอฮอล์ชัดไปหน่อยใช้ส่วนลดมาส่งฟรีถึงที่ราคาคุ้มค่ากว่าไปซื้อที่ห้าง</t>
-        </is>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -9569,12 +8189,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>คุณภาพเหมาะดีมาก ราคาไม่แพงเกินผู้ใช้ระดับกลาง ไม่เหนียวเหนอะหนะ ผิวชุ้มชื้น</t>
-        </is>
-      </c>
-      <c r="G277" t="inlineStr">
-        <is>
-          <t>คุณภาพเหมาะดีมากราคาไม่แพงเกินผู้ใช้ระดับกลางไม่เหนียวเหนอะหนะผิวชื้น</t>
+          <t>คุณภาพเหมาะดีมาก ราคาไม่แพงเกินผู้ใช้ระดับกลาง ไม่เหนียวเหนอะหนะ ผิว ชื้น</t>
         </is>
       </c>
     </row>
@@ -9602,12 +8217,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>กันแดดเนื้อเป็นน้ำเจล ทาตอนแรกจะออกวอกๆ ขาวๆ ต้องรอสักพักถึงจะซึมลงผิว ระหว่างวันรู้สึกเหนียวหน้าและมันค่ะ</t>
-        </is>
-      </c>
-      <c r="G278" t="inlineStr">
-        <is>
-          <t>กันแดดเนื้อเป็นน้ำเจลทาตอนแรกจะออกวอกขาวต้องรอสักพักถึงจะซึมลงผิวระหว่างวันรู้สึกเหนียวหน้าและมันค่ะ</t>
+          <t>กันแดดเนื้อเป็นน้ำเจล ทาตอนแรกจะออกวอก ขาว ต้องรอสักพักถึงจะซึมลงผิว ระหว่างวันรู้สึกเหนียวหน้าและมันค่ะ</t>
         </is>
       </c>
     </row>
@@ -9635,12 +8245,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>คุณภาพ  โดยรวมถือว่าโอเคค่ะใช้ได้ดีอยากให้มีโปรโมชั่นลดราคาพิเศษหรือลดราคาค่าส่งจะดีมากเลยค่ะอยากให้ราคาถูกกว่านี้หน่อย</t>
-        </is>
-      </c>
-      <c r="G279" t="inlineStr">
-        <is>
-          <t>คุณภาพโดยรวมถือว่าโอเคค่ะใช้ได้ดีอยากให้มีโปรโมชั่นลดราคาพิเศษหรือลดราคาค่าส่งจะดีมากเลยค่ะอยากให้ราคาถูกกว่านี้หน่อย</t>
+          <t>คุณภาพ โดยรวมถือว่าโอเคค่ะใช้ได้ดีอยากให้มีโปรโมชั่นลดราคาพิเศษหรือลดราคาค่าส่งจะดีมากเลยค่ะอยากให้ราคาถูกกว่านี้หน่อย</t>
         </is>
       </c>
     </row>
@@ -9671,11 +8276,6 @@
           <t>สภาพสินค้าดีมากค่ะไม่มีที่ติ แต่ของรอนานมากค่ะ</t>
         </is>
       </c>
-      <c r="G280" t="inlineStr">
-        <is>
-          <t>สภาพสินค้าดีมากค่ะไม่มีที่ติแต่ของรอนานมากค่ะ</t>
-        </is>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -9701,12 +8301,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>ใช้ดี ราคาไม่แพงครับ ถูกกว่าซื้อเองตามร้าน ตินิดนึงเรื่องรูปผลิตภัณฑ์ที่ไม่ตรงกับของที่ได้ เข้าใจว่าบริษัทปรับสูตรกับบรรจุภัณฑ์ พอเปิดกล่องแล้วนึกว่าส่งมาผิด ต้องมาอ่านฉลากดีๆ ถึงรู้</t>
-        </is>
-      </c>
-      <c r="G281" t="inlineStr">
-        <is>
-          <t>ใช้ดีราคาไม่แพงครับถูกกว่าซื้อเองตามร้านตินิดนึงเรื่องรูปผลิตภัณฑ์ที่ไม่ตรงกับของที่ได้เข้าใจว่าบริษัทปรับสูตรกับบรรจุภัณฑ์พอเปิดกล่องแล้วนึกว่าส่งมาผิดต้องมาอ่านฉลากดีถึงรู้</t>
+          <t>ใช้ดี ราคาไม่แพงครับ ถูกกว่าซื้อเองตามร้าน ตินิดนึงเรื่องรูปผลิตภัณฑ์ที่ไม่ตรงกับของที่ได้ เข้าใจว่าบริษัทปรับสูตรกับบรรจุภัณฑ์ พอเปิดกล่องแล้วนึกว่าส่งมาผิด ต้องมาอ่านฉลากดี ถึงรู้</t>
         </is>
       </c>
     </row>
@@ -9734,12 +8329,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>เพิ่งรุ้ว่าซื้อผิดสูตร  แต่ก็ใช้ดีนะ ซึมเร็ว ยังใข้อยู่เลย</t>
-        </is>
-      </c>
-      <c r="G282" t="inlineStr">
-        <is>
-          <t>เพิ่งว่าซื้อผิดสูตรแต่ก็ใช้ดีนะซึมเร็วยังอยู่เลย</t>
+          <t>เพิ่ง ว่าซื้อผิดสูตร แต่ก็ใช้ดีนะ ซึมเร็ว ยัง อยู่เลย</t>
         </is>
       </c>
     </row>
